--- a/doc/latex/sections/tables/taxonomy_tables_all_01.xlsx
+++ b/doc/latex/sections/tables/taxonomy_tables_all_01.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/legie/Documents/filmuni/project/deco_star/doc/latex/sections/tables/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC3DC385-EF94-774A-9300-429C8D2B4F57}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5629653-2AB3-EA41-B08B-CCB4FD8E4BC8}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="28340" xr2:uid="{3DA2A699-F585-A046-9B55-8B40E52B563C}"/>
   </bookViews>
@@ -130,9 +130,6 @@
   </si>
   <si>
     <t>Guiding</t>
-  </si>
-  <si>
-    <t>Painting</t>
   </si>
   <si>
     <t>Directions</t>
@@ -293,6 +290,9 @@
   <si>
     <t>GUERRERO et al. [GBLM16]</t>
   </si>
+  <si>
+    <t>Brushing</t>
+  </si>
 </sst>
 </file>
 
@@ -329,7 +329,7 @@
       <name val="Times Roman"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -354,14 +354,8 @@
         <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="6">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -438,11 +432,35 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="0" tint="-0.249977111117893"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0" tint="-0.249977111117893"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="0" tint="-0.249977111117893"/>
+      </right>
+      <top style="thin">
+        <color theme="0" tint="-0.249977111117893"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0" tint="-0.249977111117893"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
@@ -510,8 +528,23 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -7404,8 +7437,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BCAECD9A-EE75-F94A-BDAF-BDEF1AECE29F}">
   <dimension ref="A1:P1070"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
-      <selection activeCell="C286" sqref="C286"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5:P5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -7459,43 +7492,43 @@
       <c r="P2" s="20"/>
     </row>
     <row r="3" spans="1:16">
-      <c r="D3" s="30" t="s">
+      <c r="D3" s="35" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="30" t="s">
+      <c r="E3" s="35" t="s">
         <v>6</v>
       </c>
-      <c r="F3" s="30" t="s">
+      <c r="F3" s="35" t="s">
         <v>7</v>
       </c>
-      <c r="G3" s="31" t="s">
+      <c r="G3" s="36" t="s">
         <v>8</v>
       </c>
-      <c r="H3" s="31" t="s">
+      <c r="H3" s="36" t="s">
         <v>9</v>
       </c>
-      <c r="I3" s="31" t="s">
+      <c r="I3" s="36" t="s">
         <v>10</v>
       </c>
-      <c r="J3" s="31" t="s">
+      <c r="J3" s="36" t="s">
         <v>11</v>
       </c>
-      <c r="K3" s="30" t="s">
+      <c r="K3" s="35" t="s">
         <v>12</v>
       </c>
-      <c r="L3" s="30" t="s">
+      <c r="L3" s="35" t="s">
         <v>13</v>
       </c>
-      <c r="M3" s="30" t="s">
+      <c r="M3" s="35" t="s">
         <v>14</v>
       </c>
-      <c r="N3" s="31" t="s">
+      <c r="N3" s="36" t="s">
         <v>15</v>
       </c>
-      <c r="O3" s="31" t="s">
+      <c r="O3" s="36" t="s">
         <v>16</v>
       </c>
-      <c r="P3" s="31" t="s">
+      <c r="P3" s="36" t="s">
         <v>17</v>
       </c>
     </row>
@@ -7512,7 +7545,7 @@
       </c>
       <c r="D4" s="12">
         <f>SUM(D25,D46,D67,D88,D109,D130,D151,D172,D193,D214,D235,D256,D571,D592,D613,D634,D655,D676,D697,D718,D739,D760,D781,D802,D823,D844,D865,D886,D907,D928,D949,D970,D991,D1012,D1033,D1054,D277,D298,D319,D340,D361,D382,D403,D424,D445,D466,D487,D508,D529,D550)</f>
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E4" s="12">
         <f>SUM(E25,E46,E67,E88,E109,E130,E151,E172,E193,E214,E235,E256,E571,E592,E613,E634,E655,E676,E697,E718,E739,E760,E781,E802,E823,E844,E865,E886,E907,E928,E949,E970,E991,E1012,E1033,E1054,E277,E298,E319,E340,E361,E382,E403,E424,E445,E466,E487,E508,E529,E550)</f>
@@ -7528,7 +7561,7 @@
       </c>
       <c r="H4" s="13">
         <f>SUM(H25,H46,H67,H88,H109,H130,H151,H172,H193,H214,H235,H256,H571,H592,H613,H634,H655,H676,H697,H718,H739,H760,H781,H802,H823,H844,H865,H886,H907,H928,H949,H970,H991,H1012,H1033,H1054,H277,H298,H319,H340,H361,H382,H403,H424,H445,H466,H487,H508,H529,H550)</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I4" s="13">
         <f>SUM(I25,I46,I67,I88,I109,I130,I151,I172,I193,I214,I235,I256,I571,I592,I613,I634,I655,I676,I697,I718,I739,I760,I781,I802,I823,I844,I865,I886,I907,I928,I949,I970,I991,I1012,I1033,I1054,I277,I298,I319,I340,I361,I382,I403,I424,I445,I466,I487,I508,I529,I550)</f>
@@ -7540,7 +7573,7 @@
       </c>
       <c r="K4" s="12">
         <f>SUM(K25,K46,K67,K88,K109,K130,K151,K172,K193,K214,K235,K256,K571,K592,K613,K634,K655,K676,K697,K718,K739,K760,K781,K802,K823,K844,K865,K886,K907,K928,K949,K970,K991,K1012,K1033,K1054,K277,K298,K319,K340,K361,K382,K403,K424,K445,K466,K487,K508,K529,K550)</f>
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="L4" s="12">
         <f>SUM(L25,L46,L67,L88,L109,L130,L151,L172,L193,L214,L235,L256,L571,L592,L613,L634,L655,L676,L697,L718,L739,L760,L781,L802,L823,L844,L865,L886,L907,L928,L949,L970,L991,L1012,L1033,L1054,L277,L298,L319,L340,L361,L382,L403,L424,L445,L466,L487,L508,L529,L550)</f>
@@ -7552,7 +7585,7 @@
       </c>
       <c r="N4" s="13">
         <f>SUM(N25,N46,N67,N88,N109,N130,N151,N172,N193,N214,N235,N256,N571,N592,N613,N634,N655,N676,N697,N718,N739,N760,N781,N802,N823,N844,N865,N886,N907,N928,N949,N970,N991,N1012,N1033,N1054,N277,N298,N319,N340,N361,N382,N403,N424,N445,N466,N487,N508,N529,N550)</f>
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="O4" s="13">
         <f>SUM(O25,O46,O67,O88,O109,O130,O151,O172,O193,O214,O235,O256,O571,O592,O613,O634,O655,O676,O697,O718,O739,O760,O781,O802,O823,O844,O865,O886,O907,O928,O949,O970,O991,O1012,O1033,O1054,O277,O298,O319,O340,O361,O382,O403,O424,O445,O466,O487,O508,O529,O550)</f>
@@ -7570,15 +7603,15 @@
       </c>
       <c r="C5" s="13">
         <f>SUM(C26,C47,C68,C89,C110,C131,C152,C173,C194,C215,C236,C257,C572,C593,C614,C635,C656,C677,C698,C719,C740,C761,C782,C803,C824,C845,C866,C887,C908,C929,C950,C971,C992,C1013,C1034,C1055,C278,C299,C320,C341,C362,C383,C404,C425,C446,C467,C488,C509,C530,C551)</f>
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D5" s="12">
         <f t="shared" ref="D5:P20" si="0">SUM(D26,D47,D68,D89,D110,D131,D152,D173,D194,D215,D236,D257,D572,D593,D614,D635,D656,D677,D698,D719,D740,D761,D782,D803,D824,D845,D866,D887,D908,D929,D950,D971,D992,D1013,D1034,D1055,D278,D299,D320,D341,D362,D383,D404,D425,D446,D467,D488,D509,D530,D551)</f>
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E5" s="12">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F5" s="12">
         <f t="shared" si="0"/>
@@ -7590,19 +7623,19 @@
       </c>
       <c r="H5" s="13">
         <f t="shared" si="0"/>
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="I5" s="13">
         <f t="shared" si="0"/>
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="J5" s="13">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K5" s="12">
         <f t="shared" si="0"/>
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="L5" s="12">
         <f t="shared" si="0"/>
@@ -7614,7 +7647,7 @@
       </c>
       <c r="N5" s="13">
         <f t="shared" si="0"/>
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="O5" s="13">
         <f t="shared" si="0"/>
@@ -7638,7 +7671,7 @@
       </c>
       <c r="D6" s="12">
         <f t="shared" si="0"/>
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E6" s="12">
         <f t="shared" si="0"/>
@@ -7658,15 +7691,15 @@
       </c>
       <c r="I6" s="13">
         <f t="shared" si="0"/>
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="J6" s="13">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K6" s="12">
         <f t="shared" si="0"/>
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="L6" s="12">
         <f t="shared" si="0"/>
@@ -7678,7 +7711,7 @@
       </c>
       <c r="N6" s="13">
         <f t="shared" si="0"/>
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="O6" s="13">
         <f t="shared" si="0"/>
@@ -7700,7 +7733,7 @@
       </c>
       <c r="D7" s="12">
         <f t="shared" si="0"/>
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="E7" s="12">
         <f t="shared" si="0"/>
@@ -7708,7 +7741,7 @@
       </c>
       <c r="F7" s="12">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G7" s="13">
         <f t="shared" si="0"/>
@@ -7724,15 +7757,15 @@
       </c>
       <c r="J7" s="13">
         <f t="shared" si="0"/>
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="K7" s="12">
         <f t="shared" si="0"/>
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="L7" s="12">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M7" s="12">
         <f t="shared" si="0"/>
@@ -7740,11 +7773,11 @@
       </c>
       <c r="N7" s="13">
         <f t="shared" si="0"/>
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="O7" s="13">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P7" s="13">
         <f t="shared" si="0"/>
@@ -7766,7 +7799,7 @@
       </c>
       <c r="E8" s="12">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F8" s="12">
         <f t="shared" si="0"/>
@@ -7786,15 +7819,15 @@
       </c>
       <c r="J8" s="13">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="K8" s="12">
         <f t="shared" si="0"/>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="L8" s="12">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M8" s="12">
         <f t="shared" si="0"/>
@@ -7802,11 +7835,11 @@
       </c>
       <c r="N8" s="13">
         <f t="shared" si="0"/>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="O8" s="13">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P8" s="13">
         <f t="shared" si="0"/>
@@ -7826,7 +7859,7 @@
       </c>
       <c r="D9" s="12">
         <f t="shared" si="0"/>
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="E9" s="12">
         <f t="shared" si="0"/>
@@ -7842,7 +7875,7 @@
       </c>
       <c r="H9" s="13">
         <f t="shared" si="0"/>
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="I9" s="13">
         <f t="shared" si="0"/>
@@ -7854,7 +7887,7 @@
       </c>
       <c r="K9" s="12">
         <f t="shared" si="0"/>
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="L9" s="12">
         <f t="shared" si="0"/>
@@ -7866,7 +7899,7 @@
       </c>
       <c r="N9" s="13">
         <f t="shared" si="0"/>
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="O9" s="13">
         <f t="shared" si="0"/>
@@ -7874,7 +7907,7 @@
       </c>
       <c r="P9" s="13">
         <f t="shared" si="0"/>
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="10" spans="1:16">
@@ -7888,11 +7921,11 @@
       </c>
       <c r="D10" s="12">
         <f t="shared" si="0"/>
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="E10" s="12">
         <f t="shared" si="0"/>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F10" s="12">
         <f t="shared" si="0"/>
@@ -7904,7 +7937,7 @@
       </c>
       <c r="H10" s="13">
         <f t="shared" si="0"/>
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="I10" s="13">
         <f t="shared" si="0"/>
@@ -7916,7 +7949,7 @@
       </c>
       <c r="K10" s="12">
         <f t="shared" si="0"/>
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="L10" s="12">
         <f t="shared" si="0"/>
@@ -7928,11 +7961,11 @@
       </c>
       <c r="N10" s="13">
         <f t="shared" si="0"/>
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="O10" s="13">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P10" s="13">
         <f t="shared" si="0"/>
@@ -7956,11 +7989,11 @@
       </c>
       <c r="E11" s="12">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F11" s="12">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G11" s="13">
         <f t="shared" si="0"/>
@@ -7968,23 +8001,23 @@
       </c>
       <c r="H11" s="13">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I11" s="13">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="J11" s="13">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="K11" s="12">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="L11" s="12">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="M11" s="12">
         <f t="shared" si="0"/>
@@ -7992,15 +8025,15 @@
       </c>
       <c r="N11" s="13">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="O11" s="13">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="P11" s="13">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="12" spans="1:16">
@@ -8010,11 +8043,11 @@
       </c>
       <c r="C12" s="13">
         <f t="shared" si="1"/>
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D12" s="12">
         <f t="shared" si="0"/>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E12" s="12">
         <f t="shared" si="0"/>
@@ -8034,7 +8067,7 @@
       </c>
       <c r="I12" s="13">
         <f t="shared" si="0"/>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="J12" s="13">
         <f t="shared" si="0"/>
@@ -8042,7 +8075,7 @@
       </c>
       <c r="K12" s="12">
         <f t="shared" si="0"/>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="L12" s="12">
         <f t="shared" si="0"/>
@@ -8054,7 +8087,7 @@
       </c>
       <c r="N12" s="13">
         <f t="shared" si="0"/>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="O12" s="13">
         <f t="shared" si="0"/>
@@ -8084,7 +8117,7 @@
       </c>
       <c r="F13" s="12">
         <f t="shared" si="0"/>
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="G13" s="13">
         <f t="shared" si="0"/>
@@ -8096,19 +8129,19 @@
       </c>
       <c r="I13" s="13">
         <f t="shared" si="0"/>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="J13" s="13">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="K13" s="12">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="L13" s="12">
         <f t="shared" si="0"/>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="M13" s="12">
         <f t="shared" si="0"/>
@@ -8116,11 +8149,11 @@
       </c>
       <c r="N13" s="13">
         <f t="shared" si="0"/>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="O13" s="13">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="P13" s="13">
         <f t="shared" si="0"/>
@@ -8136,11 +8169,11 @@
       </c>
       <c r="C14" s="13">
         <f t="shared" si="1"/>
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="D14" s="12">
         <f t="shared" si="0"/>
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="E14" s="12">
         <f t="shared" si="0"/>
@@ -8148,11 +8181,11 @@
       </c>
       <c r="F14" s="12">
         <f t="shared" si="0"/>
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="G14" s="13">
         <f t="shared" si="0"/>
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="H14" s="13">
         <f t="shared" si="0"/>
@@ -8160,7 +8193,7 @@
       </c>
       <c r="I14" s="13">
         <f t="shared" si="0"/>
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="J14" s="13">
         <f t="shared" si="0"/>
@@ -8168,11 +8201,11 @@
       </c>
       <c r="K14" s="12">
         <f t="shared" si="0"/>
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="L14" s="12">
         <f t="shared" si="0"/>
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="M14" s="12">
         <f t="shared" si="0"/>
@@ -8180,11 +8213,11 @@
       </c>
       <c r="N14" s="13">
         <f t="shared" si="0"/>
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="O14" s="13">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="P14" s="13">
         <f t="shared" si="0"/>
@@ -8210,7 +8243,7 @@
       </c>
       <c r="F15" s="12">
         <f t="shared" si="0"/>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G15" s="13">
         <f t="shared" si="0"/>
@@ -8222,7 +8255,7 @@
       </c>
       <c r="I15" s="13">
         <f t="shared" si="0"/>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="J15" s="13">
         <f t="shared" si="0"/>
@@ -8230,11 +8263,11 @@
       </c>
       <c r="K15" s="12">
         <f t="shared" si="0"/>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="L15" s="12">
         <f t="shared" si="0"/>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="M15" s="12">
         <f t="shared" si="0"/>
@@ -8242,7 +8275,7 @@
       </c>
       <c r="N15" s="13">
         <f t="shared" si="0"/>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="O15" s="13">
         <f t="shared" si="0"/>
@@ -8319,16 +8352,16 @@
       <c r="A17" s="16" t="s">
         <v>34</v>
       </c>
-      <c r="B17" s="1" t="s">
-        <v>35</v>
+      <c r="B17" s="3" t="s">
+        <v>88</v>
       </c>
       <c r="C17" s="13">
         <f t="shared" si="1"/>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D17" s="12">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E17" s="12">
         <f t="shared" si="0"/>
@@ -8336,7 +8369,7 @@
       </c>
       <c r="F17" s="12">
         <f t="shared" si="0"/>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G17" s="13">
         <f t="shared" si="0"/>
@@ -8348,19 +8381,19 @@
       </c>
       <c r="I17" s="13">
         <f>SUM(I38,I59,I80,I101,I122,I143,I164,I185,I206,I227,I248,I269,I584,I605,I626,I647,I668,I689,I710,I731,I752,I773,I794,I815,I836,I857,I878,I899,I920,I941,I962,I983,I1004,I1025,I1046,I1067,I290,I311,I332,I353,I374,I395,I416,I437,I458,I479,I500,I521,I542,I563)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J17" s="13">
         <f t="shared" ref="J17:P20" si="2">SUM(J38,J59,J80,J101,J122,J143,J164,J185,J206,J227,J248,J269,J584,J605,J626,J647,J668,J689,J710,J731,J752,J773,J794,J815,J836,J857,J878,J899,J920,J941,J962,J983,J1004,J1025,J1046,J1067,J290,J311,J332,J353,J374,J395,J416,J437,J458,J479,J500,J521,J542,J563)</f>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="K17" s="12">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L17" s="12">
         <f t="shared" si="2"/>
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="M17" s="12">
         <f t="shared" si="2"/>
@@ -8368,11 +8401,11 @@
       </c>
       <c r="N17" s="13">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O17" s="13">
         <f t="shared" si="2"/>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="P17" s="13">
         <f t="shared" si="2"/>
@@ -8382,7 +8415,7 @@
     <row r="18" spans="1:16">
       <c r="A18" s="16"/>
       <c r="B18" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C18" s="13">
         <f t="shared" si="1"/>
@@ -8398,7 +8431,7 @@
       </c>
       <c r="F18" s="12">
         <f t="shared" si="0"/>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G18" s="13">
         <f t="shared" si="0"/>
@@ -8414,7 +8447,7 @@
       </c>
       <c r="J18" s="13">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K18" s="12">
         <f t="shared" si="2"/>
@@ -8422,7 +8455,7 @@
       </c>
       <c r="L18" s="12">
         <f t="shared" si="2"/>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="M18" s="12">
         <f t="shared" si="2"/>
@@ -8430,7 +8463,7 @@
       </c>
       <c r="N18" s="13">
         <f t="shared" si="2"/>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="O18" s="13">
         <f t="shared" si="2"/>
@@ -8443,7 +8476,7 @@
     </row>
     <row r="19" spans="1:16">
       <c r="A19" s="17" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B19" s="2" t="s">
         <v>11</v>
@@ -8462,7 +8495,7 @@
       </c>
       <c r="F19" s="12">
         <f t="shared" si="0"/>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G19" s="13">
         <f t="shared" si="0"/>
@@ -8478,7 +8511,7 @@
       </c>
       <c r="J19" s="13">
         <f t="shared" si="2"/>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="K19" s="12">
         <f t="shared" si="2"/>
@@ -8486,29 +8519,29 @@
       </c>
       <c r="L19" s="12">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M19" s="12">
         <f t="shared" si="2"/>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="N19" s="13">
         <f t="shared" si="2"/>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="O19" s="13">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P19" s="13">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20" spans="1:16">
       <c r="A20" s="17"/>
       <c r="B20" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C20" s="13">
         <f t="shared" si="1"/>
@@ -8524,7 +8557,7 @@
       </c>
       <c r="F20" s="12">
         <f t="shared" si="0"/>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G20" s="13">
         <f t="shared" si="0"/>
@@ -8540,7 +8573,7 @@
       </c>
       <c r="J20" s="13">
         <f t="shared" si="2"/>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="K20" s="12">
         <f t="shared" si="2"/>
@@ -8548,11 +8581,11 @@
       </c>
       <c r="L20" s="12">
         <f t="shared" si="2"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="M20" s="12">
         <f t="shared" si="2"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="N20" s="13">
         <f t="shared" si="2"/>
@@ -8560,16 +8593,16 @@
       </c>
       <c r="O20" s="13">
         <f t="shared" si="2"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="P20" s="13">
         <f t="shared" si="2"/>
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="22" spans="1:16">
       <c r="A22" s="22" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B22" s="22"/>
       <c r="C22" s="22"/>
@@ -8617,43 +8650,43 @@
       <c r="A24" s="3"/>
       <c r="B24" s="3"/>
       <c r="C24" s="3"/>
-      <c r="D24" s="32" t="s">
+      <c r="D24" s="37" t="s">
         <v>5</v>
       </c>
-      <c r="E24" s="32" t="s">
+      <c r="E24" s="37" t="s">
         <v>6</v>
       </c>
-      <c r="F24" s="32" t="s">
+      <c r="F24" s="37" t="s">
         <v>7</v>
       </c>
-      <c r="G24" s="33" t="s">
+      <c r="G24" s="38" t="s">
         <v>8</v>
       </c>
-      <c r="H24" s="33" t="s">
+      <c r="H24" s="38" t="s">
         <v>9</v>
       </c>
-      <c r="I24" s="33" t="s">
+      <c r="I24" s="38" t="s">
         <v>10</v>
       </c>
-      <c r="J24" s="33" t="s">
+      <c r="J24" s="38" t="s">
         <v>11</v>
       </c>
-      <c r="K24" s="32" t="s">
+      <c r="K24" s="37" t="s">
         <v>12</v>
       </c>
-      <c r="L24" s="32" t="s">
+      <c r="L24" s="37" t="s">
         <v>13</v>
       </c>
-      <c r="M24" s="32" t="s">
+      <c r="M24" s="37" t="s">
         <v>14</v>
       </c>
-      <c r="N24" s="33" t="s">
+      <c r="N24" s="38" t="s">
         <v>15</v>
       </c>
-      <c r="O24" s="33" t="s">
+      <c r="O24" s="38" t="s">
         <v>16</v>
       </c>
-      <c r="P24" s="33" t="s">
+      <c r="P24" s="38" t="s">
         <v>17</v>
       </c>
     </row>
@@ -9296,7 +9329,7 @@
         <v>34</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>35</v>
+        <v>88</v>
       </c>
       <c r="C38" s="13">
         <v>0</v>
@@ -9344,7 +9377,7 @@
     <row r="39" spans="1:16">
       <c r="A39" s="17"/>
       <c r="B39" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C39" s="13">
         <v>0</v>
@@ -9391,7 +9424,7 @@
     </row>
     <row r="40" spans="1:16">
       <c r="A40" s="17" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B40" s="3" t="s">
         <v>11</v>
@@ -9442,7 +9475,7 @@
     <row r="41" spans="1:16">
       <c r="A41" s="17"/>
       <c r="B41" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C41" s="13">
         <v>0</v>
@@ -9489,7 +9522,7 @@
     </row>
     <row r="43" spans="1:16">
       <c r="A43" s="18" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B43" s="18"/>
       <c r="C43" s="18"/>
@@ -9531,43 +9564,43 @@
       <c r="P44" s="20"/>
     </row>
     <row r="45" spans="1:16">
-      <c r="D45" s="30" t="s">
+      <c r="D45" s="35" t="s">
         <v>5</v>
       </c>
-      <c r="E45" s="30" t="s">
+      <c r="E45" s="35" t="s">
         <v>6</v>
       </c>
-      <c r="F45" s="30" t="s">
+      <c r="F45" s="35" t="s">
         <v>7</v>
       </c>
-      <c r="G45" s="31" t="s">
+      <c r="G45" s="36" t="s">
         <v>8</v>
       </c>
-      <c r="H45" s="31" t="s">
+      <c r="H45" s="36" t="s">
         <v>9</v>
       </c>
-      <c r="I45" s="31" t="s">
+      <c r="I45" s="36" t="s">
         <v>10</v>
       </c>
-      <c r="J45" s="31" t="s">
+      <c r="J45" s="36" t="s">
         <v>11</v>
       </c>
-      <c r="K45" s="30" t="s">
+      <c r="K45" s="35" t="s">
         <v>12</v>
       </c>
-      <c r="L45" s="30" t="s">
+      <c r="L45" s="35" t="s">
         <v>13</v>
       </c>
-      <c r="M45" s="30" t="s">
+      <c r="M45" s="35" t="s">
         <v>14</v>
       </c>
-      <c r="N45" s="31" t="s">
+      <c r="N45" s="36" t="s">
         <v>15</v>
       </c>
-      <c r="O45" s="31" t="s">
+      <c r="O45" s="36" t="s">
         <v>16</v>
       </c>
-      <c r="P45" s="31" t="s">
+      <c r="P45" s="36" t="s">
         <v>17</v>
       </c>
     </row>
@@ -10210,7 +10243,7 @@
         <v>34</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>35</v>
+        <v>88</v>
       </c>
       <c r="C59" s="13">
         <v>0</v>
@@ -10258,7 +10291,7 @@
     <row r="60" spans="1:16">
       <c r="A60" s="16"/>
       <c r="B60" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C60" s="13">
         <v>0</v>
@@ -10305,7 +10338,7 @@
     </row>
     <row r="61" spans="1:16">
       <c r="A61" s="17" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B61" s="2" t="s">
         <v>11</v>
@@ -10356,7 +10389,7 @@
     <row r="62" spans="1:16">
       <c r="A62" s="17"/>
       <c r="B62" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C62" s="13">
         <v>0</v>
@@ -10403,7 +10436,7 @@
     </row>
     <row r="64" spans="1:16">
       <c r="A64" s="18" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B64" s="18"/>
       <c r="C64" s="18"/>
@@ -10445,43 +10478,43 @@
       <c r="P65" s="20"/>
     </row>
     <row r="66" spans="1:16">
-      <c r="D66" s="32" t="s">
+      <c r="D66" s="37" t="s">
         <v>5</v>
       </c>
-      <c r="E66" s="32" t="s">
+      <c r="E66" s="37" t="s">
         <v>6</v>
       </c>
-      <c r="F66" s="32" t="s">
+      <c r="F66" s="37" t="s">
         <v>7</v>
       </c>
-      <c r="G66" s="33" t="s">
+      <c r="G66" s="38" t="s">
         <v>8</v>
       </c>
-      <c r="H66" s="33" t="s">
+      <c r="H66" s="38" t="s">
         <v>9</v>
       </c>
-      <c r="I66" s="33" t="s">
+      <c r="I66" s="38" t="s">
         <v>10</v>
       </c>
-      <c r="J66" s="33" t="s">
+      <c r="J66" s="38" t="s">
         <v>11</v>
       </c>
-      <c r="K66" s="32" t="s">
+      <c r="K66" s="37" t="s">
         <v>12</v>
       </c>
-      <c r="L66" s="32" t="s">
+      <c r="L66" s="37" t="s">
         <v>13</v>
       </c>
-      <c r="M66" s="32" t="s">
+      <c r="M66" s="37" t="s">
         <v>14</v>
       </c>
-      <c r="N66" s="33" t="s">
+      <c r="N66" s="38" t="s">
         <v>15</v>
       </c>
-      <c r="O66" s="33" t="s">
+      <c r="O66" s="38" t="s">
         <v>16</v>
       </c>
-      <c r="P66" s="33" t="s">
+      <c r="P66" s="38" t="s">
         <v>17</v>
       </c>
     </row>
@@ -11124,7 +11157,7 @@
         <v>34</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>35</v>
+        <v>88</v>
       </c>
       <c r="C80" s="13">
         <v>0</v>
@@ -11172,7 +11205,7 @@
     <row r="81" spans="1:16">
       <c r="A81" s="16"/>
       <c r="B81" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C81" s="13">
         <v>0</v>
@@ -11219,7 +11252,7 @@
     </row>
     <row r="82" spans="1:16">
       <c r="A82" s="17" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B82" s="2" t="s">
         <v>11</v>
@@ -11270,7 +11303,7 @@
     <row r="83" spans="1:16">
       <c r="A83" s="17"/>
       <c r="B83" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C83" s="13">
         <v>0</v>
@@ -11317,7 +11350,7 @@
     </row>
     <row r="85" spans="1:16">
       <c r="A85" s="18" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B85" s="18"/>
       <c r="C85" s="18"/>
@@ -11359,43 +11392,43 @@
       <c r="P86" s="20"/>
     </row>
     <row r="87" spans="1:16">
-      <c r="D87" s="32" t="s">
+      <c r="D87" s="37" t="s">
         <v>5</v>
       </c>
-      <c r="E87" s="32" t="s">
+      <c r="E87" s="37" t="s">
         <v>6</v>
       </c>
-      <c r="F87" s="32" t="s">
+      <c r="F87" s="37" t="s">
         <v>7</v>
       </c>
-      <c r="G87" s="33" t="s">
+      <c r="G87" s="38" t="s">
         <v>8</v>
       </c>
-      <c r="H87" s="33" t="s">
+      <c r="H87" s="38" t="s">
         <v>9</v>
       </c>
-      <c r="I87" s="33" t="s">
+      <c r="I87" s="38" t="s">
         <v>10</v>
       </c>
-      <c r="J87" s="33" t="s">
+      <c r="J87" s="38" t="s">
         <v>11</v>
       </c>
-      <c r="K87" s="32" t="s">
+      <c r="K87" s="37" t="s">
         <v>12</v>
       </c>
-      <c r="L87" s="32" t="s">
+      <c r="L87" s="37" t="s">
         <v>13</v>
       </c>
-      <c r="M87" s="32" t="s">
+      <c r="M87" s="37" t="s">
         <v>14</v>
       </c>
-      <c r="N87" s="33" t="s">
+      <c r="N87" s="38" t="s">
         <v>15</v>
       </c>
-      <c r="O87" s="33" t="s">
+      <c r="O87" s="38" t="s">
         <v>16</v>
       </c>
-      <c r="P87" s="33" t="s">
+      <c r="P87" s="38" t="s">
         <v>17</v>
       </c>
     </row>
@@ -12038,7 +12071,7 @@
         <v>34</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>35</v>
+        <v>88</v>
       </c>
       <c r="C101" s="13">
         <v>0</v>
@@ -12086,7 +12119,7 @@
     <row r="102" spans="1:16">
       <c r="A102" s="16"/>
       <c r="B102" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C102" s="13">
         <v>0</v>
@@ -12133,7 +12166,7 @@
     </row>
     <row r="103" spans="1:16">
       <c r="A103" s="17" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B103" s="3" t="s">
         <v>11</v>
@@ -12184,7 +12217,7 @@
     <row r="104" spans="1:16">
       <c r="A104" s="17"/>
       <c r="B104" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C104" s="13">
         <v>0</v>
@@ -12231,7 +12264,7 @@
     </row>
     <row r="106" spans="1:16">
       <c r="A106" s="18" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B106" s="18"/>
       <c r="C106" s="18"/>
@@ -12273,43 +12306,43 @@
       <c r="P107" s="20"/>
     </row>
     <row r="108" spans="1:16">
-      <c r="D108" s="32" t="s">
+      <c r="D108" s="37" t="s">
         <v>5</v>
       </c>
-      <c r="E108" s="32" t="s">
+      <c r="E108" s="37" t="s">
         <v>6</v>
       </c>
-      <c r="F108" s="32" t="s">
+      <c r="F108" s="37" t="s">
         <v>7</v>
       </c>
-      <c r="G108" s="33" t="s">
+      <c r="G108" s="38" t="s">
         <v>8</v>
       </c>
-      <c r="H108" s="33" t="s">
+      <c r="H108" s="38" t="s">
         <v>9</v>
       </c>
-      <c r="I108" s="33" t="s">
+      <c r="I108" s="38" t="s">
         <v>10</v>
       </c>
-      <c r="J108" s="33" t="s">
+      <c r="J108" s="38" t="s">
         <v>11</v>
       </c>
-      <c r="K108" s="32" t="s">
+      <c r="K108" s="37" t="s">
         <v>12</v>
       </c>
-      <c r="L108" s="32" t="s">
+      <c r="L108" s="37" t="s">
         <v>13</v>
       </c>
-      <c r="M108" s="32" t="s">
+      <c r="M108" s="37" t="s">
         <v>14</v>
       </c>
-      <c r="N108" s="33" t="s">
+      <c r="N108" s="38" t="s">
         <v>15</v>
       </c>
-      <c r="O108" s="33" t="s">
+      <c r="O108" s="38" t="s">
         <v>16</v>
       </c>
-      <c r="P108" s="33" t="s">
+      <c r="P108" s="38" t="s">
         <v>17</v>
       </c>
     </row>
@@ -12952,7 +12985,7 @@
         <v>34</v>
       </c>
       <c r="B122" s="1" t="s">
-        <v>35</v>
+        <v>88</v>
       </c>
       <c r="C122" s="13">
         <v>0</v>
@@ -13000,7 +13033,7 @@
     <row r="123" spans="1:16">
       <c r="A123" s="16"/>
       <c r="B123" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C123" s="13">
         <v>0</v>
@@ -13047,7 +13080,7 @@
     </row>
     <row r="124" spans="1:16">
       <c r="A124" s="17" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B124" s="3" t="s">
         <v>11</v>
@@ -13098,7 +13131,7 @@
     <row r="125" spans="1:16">
       <c r="A125" s="17"/>
       <c r="B125" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C125" s="13">
         <v>0</v>
@@ -13145,7 +13178,7 @@
     </row>
     <row r="127" spans="1:16">
       <c r="A127" s="18" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B127" s="18"/>
       <c r="C127" s="18"/>
@@ -13187,43 +13220,43 @@
       <c r="P128" s="20"/>
     </row>
     <row r="129" spans="1:16">
-      <c r="D129" s="32" t="s">
+      <c r="D129" s="37" t="s">
         <v>5</v>
       </c>
-      <c r="E129" s="32" t="s">
+      <c r="E129" s="37" t="s">
         <v>6</v>
       </c>
-      <c r="F129" s="32" t="s">
+      <c r="F129" s="37" t="s">
         <v>7</v>
       </c>
-      <c r="G129" s="33" t="s">
+      <c r="G129" s="38" t="s">
         <v>8</v>
       </c>
-      <c r="H129" s="33" t="s">
+      <c r="H129" s="38" t="s">
         <v>9</v>
       </c>
-      <c r="I129" s="33" t="s">
+      <c r="I129" s="38" t="s">
         <v>10</v>
       </c>
-      <c r="J129" s="33" t="s">
+      <c r="J129" s="38" t="s">
         <v>11</v>
       </c>
-      <c r="K129" s="32" t="s">
+      <c r="K129" s="37" t="s">
         <v>12</v>
       </c>
-      <c r="L129" s="32" t="s">
+      <c r="L129" s="37" t="s">
         <v>13</v>
       </c>
-      <c r="M129" s="32" t="s">
+      <c r="M129" s="37" t="s">
         <v>14</v>
       </c>
-      <c r="N129" s="33" t="s">
+      <c r="N129" s="38" t="s">
         <v>15</v>
       </c>
-      <c r="O129" s="33" t="s">
+      <c r="O129" s="38" t="s">
         <v>16</v>
       </c>
-      <c r="P129" s="33" t="s">
+      <c r="P129" s="38" t="s">
         <v>17</v>
       </c>
     </row>
@@ -13866,7 +13899,7 @@
         <v>34</v>
       </c>
       <c r="B143" s="1" t="s">
-        <v>35</v>
+        <v>88</v>
       </c>
       <c r="C143" s="13">
         <v>0</v>
@@ -13914,7 +13947,7 @@
     <row r="144" spans="1:16">
       <c r="A144" s="16"/>
       <c r="B144" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C144" s="13">
         <v>0</v>
@@ -13961,7 +13994,7 @@
     </row>
     <row r="145" spans="1:16">
       <c r="A145" s="17" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B145" s="3" t="s">
         <v>11</v>
@@ -14012,7 +14045,7 @@
     <row r="146" spans="1:16">
       <c r="A146" s="17"/>
       <c r="B146" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C146" s="13">
         <v>0</v>
@@ -14059,7 +14092,7 @@
     </row>
     <row r="148" spans="1:16">
       <c r="A148" s="18" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B148" s="18"/>
       <c r="C148" s="18"/>
@@ -14101,43 +14134,43 @@
       <c r="P149" s="20"/>
     </row>
     <row r="150" spans="1:16">
-      <c r="D150" s="32" t="s">
+      <c r="D150" s="37" t="s">
         <v>5</v>
       </c>
-      <c r="E150" s="32" t="s">
+      <c r="E150" s="37" t="s">
         <v>6</v>
       </c>
-      <c r="F150" s="32" t="s">
+      <c r="F150" s="37" t="s">
         <v>7</v>
       </c>
-      <c r="G150" s="33" t="s">
+      <c r="G150" s="38" t="s">
         <v>8</v>
       </c>
-      <c r="H150" s="33" t="s">
+      <c r="H150" s="38" t="s">
         <v>9</v>
       </c>
-      <c r="I150" s="33" t="s">
+      <c r="I150" s="38" t="s">
         <v>10</v>
       </c>
-      <c r="J150" s="33" t="s">
+      <c r="J150" s="38" t="s">
         <v>11</v>
       </c>
-      <c r="K150" s="32" t="s">
+      <c r="K150" s="37" t="s">
         <v>12</v>
       </c>
-      <c r="L150" s="32" t="s">
+      <c r="L150" s="37" t="s">
         <v>13</v>
       </c>
-      <c r="M150" s="32" t="s">
+      <c r="M150" s="37" t="s">
         <v>14</v>
       </c>
-      <c r="N150" s="33" t="s">
+      <c r="N150" s="38" t="s">
         <v>15</v>
       </c>
-      <c r="O150" s="33" t="s">
+      <c r="O150" s="38" t="s">
         <v>16</v>
       </c>
-      <c r="P150" s="33" t="s">
+      <c r="P150" s="38" t="s">
         <v>17</v>
       </c>
     </row>
@@ -14780,7 +14813,7 @@
         <v>34</v>
       </c>
       <c r="B164" s="1" t="s">
-        <v>35</v>
+        <v>88</v>
       </c>
       <c r="C164" s="13">
         <v>0</v>
@@ -14828,7 +14861,7 @@
     <row r="165" spans="1:16">
       <c r="A165" s="16"/>
       <c r="B165" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C165" s="13">
         <v>0</v>
@@ -14875,7 +14908,7 @@
     </row>
     <row r="166" spans="1:16">
       <c r="A166" s="17" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B166" s="3" t="s">
         <v>11</v>
@@ -14926,7 +14959,7 @@
     <row r="167" spans="1:16">
       <c r="A167" s="17"/>
       <c r="B167" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C167" s="13">
         <v>0</v>
@@ -14973,7 +15006,7 @@
     </row>
     <row r="169" spans="1:16">
       <c r="A169" s="18" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B169" s="18"/>
       <c r="C169" s="18"/>
@@ -15015,43 +15048,43 @@
       <c r="P170" s="20"/>
     </row>
     <row r="171" spans="1:16">
-      <c r="D171" s="32" t="s">
+      <c r="D171" s="37" t="s">
         <v>5</v>
       </c>
-      <c r="E171" s="32" t="s">
+      <c r="E171" s="37" t="s">
         <v>6</v>
       </c>
-      <c r="F171" s="32" t="s">
+      <c r="F171" s="37" t="s">
         <v>7</v>
       </c>
-      <c r="G171" s="33" t="s">
+      <c r="G171" s="38" t="s">
         <v>8</v>
       </c>
-      <c r="H171" s="33" t="s">
+      <c r="H171" s="38" t="s">
         <v>9</v>
       </c>
-      <c r="I171" s="33" t="s">
+      <c r="I171" s="38" t="s">
         <v>10</v>
       </c>
-      <c r="J171" s="33" t="s">
+      <c r="J171" s="38" t="s">
         <v>11</v>
       </c>
-      <c r="K171" s="32" t="s">
+      <c r="K171" s="37" t="s">
         <v>12</v>
       </c>
-      <c r="L171" s="32" t="s">
+      <c r="L171" s="37" t="s">
         <v>13</v>
       </c>
-      <c r="M171" s="32" t="s">
+      <c r="M171" s="37" t="s">
         <v>14</v>
       </c>
-      <c r="N171" s="33" t="s">
+      <c r="N171" s="38" t="s">
         <v>15</v>
       </c>
-      <c r="O171" s="33" t="s">
+      <c r="O171" s="38" t="s">
         <v>16</v>
       </c>
-      <c r="P171" s="33" t="s">
+      <c r="P171" s="38" t="s">
         <v>17</v>
       </c>
     </row>
@@ -15694,7 +15727,7 @@
         <v>34</v>
       </c>
       <c r="B185" s="1" t="s">
-        <v>35</v>
+        <v>88</v>
       </c>
       <c r="C185" s="13">
         <v>0</v>
@@ -15742,7 +15775,7 @@
     <row r="186" spans="1:16">
       <c r="A186" s="16"/>
       <c r="B186" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C186" s="13">
         <v>0</v>
@@ -15789,7 +15822,7 @@
     </row>
     <row r="187" spans="1:16">
       <c r="A187" s="17" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B187" s="3" t="s">
         <v>11</v>
@@ -15840,7 +15873,7 @@
     <row r="188" spans="1:16">
       <c r="A188" s="17"/>
       <c r="B188" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C188" s="13">
         <v>0</v>
@@ -15887,7 +15920,7 @@
     </row>
     <row r="190" spans="1:16">
       <c r="A190" s="18" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B190" s="18"/>
       <c r="C190" s="18"/>
@@ -15929,43 +15962,43 @@
       <c r="P191" s="20"/>
     </row>
     <row r="192" spans="1:16">
-      <c r="D192" s="32" t="s">
+      <c r="D192" s="37" t="s">
         <v>5</v>
       </c>
-      <c r="E192" s="32" t="s">
+      <c r="E192" s="37" t="s">
         <v>6</v>
       </c>
-      <c r="F192" s="32" t="s">
+      <c r="F192" s="37" t="s">
         <v>7</v>
       </c>
-      <c r="G192" s="33" t="s">
+      <c r="G192" s="38" t="s">
         <v>8</v>
       </c>
-      <c r="H192" s="33" t="s">
+      <c r="H192" s="38" t="s">
         <v>9</v>
       </c>
-      <c r="I192" s="33" t="s">
+      <c r="I192" s="38" t="s">
         <v>10</v>
       </c>
-      <c r="J192" s="33" t="s">
+      <c r="J192" s="38" t="s">
         <v>11</v>
       </c>
-      <c r="K192" s="32" t="s">
+      <c r="K192" s="37" t="s">
         <v>12</v>
       </c>
-      <c r="L192" s="32" t="s">
+      <c r="L192" s="37" t="s">
         <v>13</v>
       </c>
-      <c r="M192" s="32" t="s">
+      <c r="M192" s="37" t="s">
         <v>14</v>
       </c>
-      <c r="N192" s="33" t="s">
+      <c r="N192" s="38" t="s">
         <v>15</v>
       </c>
-      <c r="O192" s="33" t="s">
+      <c r="O192" s="38" t="s">
         <v>16</v>
       </c>
-      <c r="P192" s="33" t="s">
+      <c r="P192" s="38" t="s">
         <v>17</v>
       </c>
     </row>
@@ -16608,7 +16641,7 @@
         <v>34</v>
       </c>
       <c r="B206" s="1" t="s">
-        <v>35</v>
+        <v>88</v>
       </c>
       <c r="C206" s="13">
         <v>0</v>
@@ -16656,7 +16689,7 @@
     <row r="207" spans="1:16">
       <c r="A207" s="16"/>
       <c r="B207" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C207" s="13">
         <v>0</v>
@@ -16703,7 +16736,7 @@
     </row>
     <row r="208" spans="1:16">
       <c r="A208" s="17" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B208" s="3" t="s">
         <v>11</v>
@@ -16754,7 +16787,7 @@
     <row r="209" spans="1:16">
       <c r="A209" s="17"/>
       <c r="B209" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C209" s="13">
         <v>0</v>
@@ -16801,7 +16834,7 @@
     </row>
     <row r="211" spans="1:16">
       <c r="A211" s="18" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B211" s="18"/>
       <c r="C211" s="18"/>
@@ -16843,43 +16876,43 @@
       <c r="P212" s="20"/>
     </row>
     <row r="213" spans="1:16">
-      <c r="D213" s="32" t="s">
+      <c r="D213" s="37" t="s">
         <v>5</v>
       </c>
-      <c r="E213" s="32" t="s">
+      <c r="E213" s="37" t="s">
         <v>6</v>
       </c>
-      <c r="F213" s="32" t="s">
+      <c r="F213" s="37" t="s">
         <v>7</v>
       </c>
-      <c r="G213" s="33" t="s">
+      <c r="G213" s="38" t="s">
         <v>8</v>
       </c>
-      <c r="H213" s="33" t="s">
+      <c r="H213" s="38" t="s">
         <v>9</v>
       </c>
-      <c r="I213" s="33" t="s">
+      <c r="I213" s="38" t="s">
         <v>10</v>
       </c>
-      <c r="J213" s="33" t="s">
+      <c r="J213" s="38" t="s">
         <v>11</v>
       </c>
-      <c r="K213" s="32" t="s">
+      <c r="K213" s="37" t="s">
         <v>12</v>
       </c>
-      <c r="L213" s="32" t="s">
+      <c r="L213" s="37" t="s">
         <v>13</v>
       </c>
-      <c r="M213" s="32" t="s">
+      <c r="M213" s="37" t="s">
         <v>14</v>
       </c>
-      <c r="N213" s="33" t="s">
+      <c r="N213" s="38" t="s">
         <v>15</v>
       </c>
-      <c r="O213" s="33" t="s">
+      <c r="O213" s="38" t="s">
         <v>16</v>
       </c>
-      <c r="P213" s="33" t="s">
+      <c r="P213" s="38" t="s">
         <v>17</v>
       </c>
     </row>
@@ -17522,7 +17555,7 @@
         <v>34</v>
       </c>
       <c r="B227" s="1" t="s">
-        <v>35</v>
+        <v>88</v>
       </c>
       <c r="C227" s="13">
         <v>0</v>
@@ -17570,7 +17603,7 @@
     <row r="228" spans="1:16">
       <c r="A228" s="16"/>
       <c r="B228" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C228" s="13">
         <v>0</v>
@@ -17617,7 +17650,7 @@
     </row>
     <row r="229" spans="1:16">
       <c r="A229" s="17" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B229" s="3" t="s">
         <v>11</v>
@@ -17668,7 +17701,7 @@
     <row r="230" spans="1:16">
       <c r="A230" s="17"/>
       <c r="B230" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C230" s="13">
         <v>0</v>
@@ -17715,7 +17748,7 @@
     </row>
     <row r="232" spans="1:16">
       <c r="A232" s="18" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B232" s="18"/>
       <c r="C232" s="18"/>
@@ -17757,43 +17790,43 @@
       <c r="P233" s="20"/>
     </row>
     <row r="234" spans="1:16">
-      <c r="D234" s="32" t="s">
+      <c r="D234" s="37" t="s">
         <v>5</v>
       </c>
-      <c r="E234" s="32" t="s">
+      <c r="E234" s="37" t="s">
         <v>6</v>
       </c>
-      <c r="F234" s="32" t="s">
+      <c r="F234" s="37" t="s">
         <v>7</v>
       </c>
-      <c r="G234" s="33" t="s">
+      <c r="G234" s="38" t="s">
         <v>8</v>
       </c>
-      <c r="H234" s="33" t="s">
+      <c r="H234" s="38" t="s">
         <v>9</v>
       </c>
-      <c r="I234" s="33" t="s">
+      <c r="I234" s="38" t="s">
         <v>10</v>
       </c>
-      <c r="J234" s="33" t="s">
+      <c r="J234" s="38" t="s">
         <v>11</v>
       </c>
-      <c r="K234" s="32" t="s">
+      <c r="K234" s="37" t="s">
         <v>12</v>
       </c>
-      <c r="L234" s="32" t="s">
+      <c r="L234" s="37" t="s">
         <v>13</v>
       </c>
-      <c r="M234" s="32" t="s">
+      <c r="M234" s="37" t="s">
         <v>14</v>
       </c>
-      <c r="N234" s="33" t="s">
+      <c r="N234" s="38" t="s">
         <v>15</v>
       </c>
-      <c r="O234" s="33" t="s">
+      <c r="O234" s="38" t="s">
         <v>16</v>
       </c>
-      <c r="P234" s="33" t="s">
+      <c r="P234" s="38" t="s">
         <v>17</v>
       </c>
     </row>
@@ -18436,7 +18469,7 @@
         <v>34</v>
       </c>
       <c r="B248" s="1" t="s">
-        <v>35</v>
+        <v>88</v>
       </c>
       <c r="C248" s="13">
         <v>0</v>
@@ -18484,7 +18517,7 @@
     <row r="249" spans="1:16">
       <c r="A249" s="16"/>
       <c r="B249" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C249" s="13">
         <v>0</v>
@@ -18531,7 +18564,7 @@
     </row>
     <row r="250" spans="1:16">
       <c r="A250" s="17" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B250" s="3" t="s">
         <v>11</v>
@@ -18582,7 +18615,7 @@
     <row r="251" spans="1:16">
       <c r="A251" s="17"/>
       <c r="B251" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C251" s="13">
         <v>0</v>
@@ -18629,7 +18662,7 @@
     </row>
     <row r="253" spans="1:16">
       <c r="A253" s="18" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B253" s="18"/>
       <c r="C253" s="18"/>
@@ -18671,43 +18704,43 @@
       <c r="P254" s="20"/>
     </row>
     <row r="255" spans="1:16">
-      <c r="D255" s="32" t="s">
+      <c r="D255" s="37" t="s">
         <v>5</v>
       </c>
-      <c r="E255" s="32" t="s">
+      <c r="E255" s="37" t="s">
         <v>6</v>
       </c>
-      <c r="F255" s="32" t="s">
+      <c r="F255" s="37" t="s">
         <v>7</v>
       </c>
-      <c r="G255" s="33" t="s">
+      <c r="G255" s="38" t="s">
         <v>8</v>
       </c>
-      <c r="H255" s="33" t="s">
+      <c r="H255" s="38" t="s">
         <v>9</v>
       </c>
-      <c r="I255" s="33" t="s">
+      <c r="I255" s="38" t="s">
         <v>10</v>
       </c>
-      <c r="J255" s="33" t="s">
+      <c r="J255" s="38" t="s">
         <v>11</v>
       </c>
-      <c r="K255" s="32" t="s">
+      <c r="K255" s="37" t="s">
         <v>12</v>
       </c>
-      <c r="L255" s="32" t="s">
+      <c r="L255" s="37" t="s">
         <v>13</v>
       </c>
-      <c r="M255" s="32" t="s">
+      <c r="M255" s="37" t="s">
         <v>14</v>
       </c>
-      <c r="N255" s="33" t="s">
+      <c r="N255" s="38" t="s">
         <v>15</v>
       </c>
-      <c r="O255" s="33" t="s">
+      <c r="O255" s="38" t="s">
         <v>16</v>
       </c>
-      <c r="P255" s="33" t="s">
+      <c r="P255" s="38" t="s">
         <v>17</v>
       </c>
     </row>
@@ -19350,7 +19383,7 @@
         <v>34</v>
       </c>
       <c r="B269" s="1" t="s">
-        <v>35</v>
+        <v>88</v>
       </c>
       <c r="C269" s="13">
         <v>0</v>
@@ -19398,7 +19431,7 @@
     <row r="270" spans="1:16">
       <c r="A270" s="16"/>
       <c r="B270" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C270" s="13">
         <v>0</v>
@@ -19445,7 +19478,7 @@
     </row>
     <row r="271" spans="1:16">
       <c r="A271" s="17" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B271" s="3" t="s">
         <v>11</v>
@@ -19496,7 +19529,7 @@
     <row r="272" spans="1:16">
       <c r="A272" s="17"/>
       <c r="B272" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C272" s="13">
         <v>0</v>
@@ -19542,24 +19575,24 @@
       </c>
     </row>
     <row r="274" spans="1:16">
-      <c r="A274" s="25" t="s">
-        <v>51</v>
-      </c>
-      <c r="B274" s="25"/>
-      <c r="C274" s="25"/>
-      <c r="D274" s="25"/>
-      <c r="E274" s="25"/>
-      <c r="F274" s="25"/>
-      <c r="G274" s="25"/>
-      <c r="H274" s="25"/>
-      <c r="I274" s="25"/>
-      <c r="J274" s="25"/>
-      <c r="K274" s="25"/>
-      <c r="L274" s="25"/>
-      <c r="M274" s="25"/>
-      <c r="N274" s="25"/>
-      <c r="O274" s="25"/>
-      <c r="P274" s="25"/>
+      <c r="A274" s="18" t="s">
+        <v>50</v>
+      </c>
+      <c r="B274" s="18"/>
+      <c r="C274" s="18"/>
+      <c r="D274" s="18"/>
+      <c r="E274" s="18"/>
+      <c r="F274" s="18"/>
+      <c r="G274" s="18"/>
+      <c r="H274" s="18"/>
+      <c r="I274" s="18"/>
+      <c r="J274" s="18"/>
+      <c r="K274" s="18"/>
+      <c r="L274" s="18"/>
+      <c r="M274" s="18"/>
+      <c r="N274" s="18"/>
+      <c r="O274" s="18"/>
+      <c r="P274" s="18"/>
     </row>
     <row r="275" spans="1:16">
       <c r="D275" s="19" t="s">
@@ -19585,43 +19618,43 @@
       <c r="P275" s="20"/>
     </row>
     <row r="276" spans="1:16">
-      <c r="D276" s="32" t="s">
+      <c r="D276" s="37" t="s">
         <v>5</v>
       </c>
-      <c r="E276" s="32" t="s">
+      <c r="E276" s="37" t="s">
         <v>6</v>
       </c>
-      <c r="F276" s="32" t="s">
+      <c r="F276" s="37" t="s">
         <v>7</v>
       </c>
-      <c r="G276" s="33" t="s">
+      <c r="G276" s="38" t="s">
         <v>8</v>
       </c>
-      <c r="H276" s="33" t="s">
+      <c r="H276" s="38" t="s">
         <v>9</v>
       </c>
-      <c r="I276" s="33" t="s">
+      <c r="I276" s="38" t="s">
         <v>10</v>
       </c>
-      <c r="J276" s="33" t="s">
+      <c r="J276" s="38" t="s">
         <v>11</v>
       </c>
-      <c r="K276" s="32" t="s">
+      <c r="K276" s="37" t="s">
         <v>12</v>
       </c>
-      <c r="L276" s="32" t="s">
+      <c r="L276" s="37" t="s">
         <v>13</v>
       </c>
-      <c r="M276" s="32" t="s">
+      <c r="M276" s="37" t="s">
         <v>14</v>
       </c>
-      <c r="N276" s="33" t="s">
+      <c r="N276" s="38" t="s">
         <v>15</v>
       </c>
-      <c r="O276" s="33" t="s">
+      <c r="O276" s="38" t="s">
         <v>16</v>
       </c>
-      <c r="P276" s="33" t="s">
+      <c r="P276" s="38" t="s">
         <v>17</v>
       </c>
     </row>
@@ -19681,13 +19714,13 @@
         <v>20</v>
       </c>
       <c r="C278" s="13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D278" s="12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E278" s="12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F278" s="12">
         <v>0</v>
@@ -19696,16 +19729,16 @@
         <v>0</v>
       </c>
       <c r="H278" s="13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I278" s="13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J278" s="13">
         <v>0</v>
       </c>
       <c r="K278" s="12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L278" s="12">
         <v>0</v>
@@ -19714,7 +19747,7 @@
         <v>0</v>
       </c>
       <c r="N278" s="13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O278" s="13">
         <v>0</v>
@@ -19749,13 +19782,13 @@
         <v>0</v>
       </c>
       <c r="I279" s="13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J279" s="13">
         <v>0</v>
       </c>
       <c r="K279" s="12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L279" s="12">
         <v>0</v>
@@ -19764,7 +19797,7 @@
         <v>0</v>
       </c>
       <c r="N279" s="13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O279" s="13">
         <v>0</v>
@@ -19880,7 +19913,7 @@
         <v>1</v>
       </c>
       <c r="D282" s="12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E282" s="12">
         <v>0</v>
@@ -19892,7 +19925,7 @@
         <v>0</v>
       </c>
       <c r="H282" s="13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I282" s="13">
         <v>0</v>
@@ -19901,7 +19934,7 @@
         <v>0</v>
       </c>
       <c r="K282" s="12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L282" s="12">
         <v>0</v>
@@ -19916,7 +19949,7 @@
         <v>0</v>
       </c>
       <c r="P282" s="13">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="283" spans="1:16">
@@ -19928,7 +19961,7 @@
         <v>1</v>
       </c>
       <c r="D283" s="12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E283" s="12">
         <v>0</v>
@@ -19940,7 +19973,7 @@
         <v>0</v>
       </c>
       <c r="H283" s="13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I283" s="13">
         <v>0</v>
@@ -19949,7 +19982,7 @@
         <v>0</v>
       </c>
       <c r="K283" s="12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L283" s="12">
         <v>0</v>
@@ -19958,7 +19991,7 @@
         <v>0</v>
       </c>
       <c r="N283" s="13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O283" s="13">
         <v>0</v>
@@ -19993,13 +20026,13 @@
         <v>0</v>
       </c>
       <c r="I284" s="13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J284" s="13">
         <v>0</v>
       </c>
       <c r="K284" s="12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L284" s="12">
         <v>0</v>
@@ -20011,7 +20044,7 @@
         <v>0</v>
       </c>
       <c r="O284" s="13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P284" s="13">
         <v>0</v>
@@ -20023,7 +20056,7 @@
         <v>22</v>
       </c>
       <c r="C285" s="13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D285" s="12">
         <v>0</v>
@@ -20121,10 +20154,10 @@
         <v>31</v>
       </c>
       <c r="C287" s="13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D287" s="12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E287" s="12">
         <v>0</v>
@@ -20133,7 +20166,7 @@
         <v>0</v>
       </c>
       <c r="G287" s="13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H287" s="13">
         <v>0</v>
@@ -20145,7 +20178,7 @@
         <v>0</v>
       </c>
       <c r="K287" s="12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L287" s="12">
         <v>0</v>
@@ -20154,7 +20187,7 @@
         <v>0</v>
       </c>
       <c r="N287" s="13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O287" s="13">
         <v>0</v>
@@ -20264,7 +20297,7 @@
         <v>34</v>
       </c>
       <c r="B290" s="1" t="s">
-        <v>35</v>
+        <v>88</v>
       </c>
       <c r="C290" s="13">
         <v>0</v>
@@ -20312,7 +20345,7 @@
     <row r="291" spans="1:16">
       <c r="A291" s="16"/>
       <c r="B291" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C291" s="13">
         <v>0</v>
@@ -20359,7 +20392,7 @@
     </row>
     <row r="292" spans="1:16">
       <c r="A292" s="17" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B292" s="3" t="s">
         <v>11</v>
@@ -20410,7 +20443,7 @@
     <row r="293" spans="1:16">
       <c r="A293" s="17"/>
       <c r="B293" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C293" s="13">
         <v>0</v>
@@ -20456,24 +20489,24 @@
       </c>
     </row>
     <row r="295" spans="1:16">
-      <c r="A295" s="25" t="s">
-        <v>52</v>
-      </c>
-      <c r="B295" s="25"/>
-      <c r="C295" s="25"/>
-      <c r="D295" s="25"/>
-      <c r="E295" s="25"/>
-      <c r="F295" s="25"/>
-      <c r="G295" s="25"/>
-      <c r="H295" s="25"/>
-      <c r="I295" s="25"/>
-      <c r="J295" s="25"/>
-      <c r="K295" s="25"/>
-      <c r="L295" s="25"/>
-      <c r="M295" s="25"/>
-      <c r="N295" s="25"/>
-      <c r="O295" s="25"/>
-      <c r="P295" s="25"/>
+      <c r="A295" s="18" t="s">
+        <v>51</v>
+      </c>
+      <c r="B295" s="18"/>
+      <c r="C295" s="18"/>
+      <c r="D295" s="18"/>
+      <c r="E295" s="18"/>
+      <c r="F295" s="18"/>
+      <c r="G295" s="18"/>
+      <c r="H295" s="18"/>
+      <c r="I295" s="18"/>
+      <c r="J295" s="18"/>
+      <c r="K295" s="18"/>
+      <c r="L295" s="18"/>
+      <c r="M295" s="18"/>
+      <c r="N295" s="18"/>
+      <c r="O295" s="18"/>
+      <c r="P295" s="18"/>
     </row>
     <row r="296" spans="1:16">
       <c r="D296" s="19" t="s">
@@ -20499,43 +20532,43 @@
       <c r="P296" s="20"/>
     </row>
     <row r="297" spans="1:16">
-      <c r="D297" s="32" t="s">
+      <c r="D297" s="37" t="s">
         <v>5</v>
       </c>
-      <c r="E297" s="32" t="s">
+      <c r="E297" s="37" t="s">
         <v>6</v>
       </c>
-      <c r="F297" s="32" t="s">
+      <c r="F297" s="37" t="s">
         <v>7</v>
       </c>
-      <c r="G297" s="33" t="s">
+      <c r="G297" s="38" t="s">
         <v>8</v>
       </c>
-      <c r="H297" s="33" t="s">
+      <c r="H297" s="38" t="s">
         <v>9</v>
       </c>
-      <c r="I297" s="33" t="s">
+      <c r="I297" s="38" t="s">
         <v>10</v>
       </c>
-      <c r="J297" s="33" t="s">
+      <c r="J297" s="38" t="s">
         <v>11</v>
       </c>
-      <c r="K297" s="32" t="s">
+      <c r="K297" s="37" t="s">
         <v>12</v>
       </c>
-      <c r="L297" s="32" t="s">
+      <c r="L297" s="37" t="s">
         <v>13</v>
       </c>
-      <c r="M297" s="32" t="s">
+      <c r="M297" s="37" t="s">
         <v>14</v>
       </c>
-      <c r="N297" s="33" t="s">
+      <c r="N297" s="38" t="s">
         <v>15</v>
       </c>
-      <c r="O297" s="33" t="s">
+      <c r="O297" s="38" t="s">
         <v>16</v>
       </c>
-      <c r="P297" s="33" t="s">
+      <c r="P297" s="38" t="s">
         <v>17</v>
       </c>
     </row>
@@ -20648,7 +20681,7 @@
         <v>1</v>
       </c>
       <c r="D300" s="12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E300" s="12">
         <v>0</v>
@@ -20666,10 +20699,10 @@
         <v>0</v>
       </c>
       <c r="J300" s="13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K300" s="12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L300" s="12">
         <v>0</v>
@@ -20678,7 +20711,7 @@
         <v>0</v>
       </c>
       <c r="N300" s="13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O300" s="13">
         <v>0</v>
@@ -20898,7 +20931,7 @@
         <v>0</v>
       </c>
       <c r="F305" s="12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G305" s="13">
         <v>0</v>
@@ -20907,13 +20940,13 @@
         <v>0</v>
       </c>
       <c r="I305" s="13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J305" s="13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K305" s="12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L305" s="12">
         <v>0</v>
@@ -20922,10 +20955,10 @@
         <v>0</v>
       </c>
       <c r="N305" s="13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O305" s="13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P305" s="13">
         <v>0</v>
@@ -20994,7 +21027,7 @@
         <v>0</v>
       </c>
       <c r="F307" s="12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G307" s="13">
         <v>0</v>
@@ -21006,10 +21039,10 @@
         <v>0</v>
       </c>
       <c r="J307" s="13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K307" s="12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L307" s="12">
         <v>0</v>
@@ -21021,7 +21054,7 @@
         <v>0</v>
       </c>
       <c r="O307" s="13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P307" s="13">
         <v>0</v>
@@ -21035,10 +21068,10 @@
         <v>31</v>
       </c>
       <c r="C308" s="13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D308" s="12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E308" s="12">
         <v>0</v>
@@ -21047,7 +21080,7 @@
         <v>0</v>
       </c>
       <c r="G308" s="13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H308" s="13">
         <v>0</v>
@@ -21059,7 +21092,7 @@
         <v>0</v>
       </c>
       <c r="K308" s="12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L308" s="12">
         <v>0</v>
@@ -21068,7 +21101,7 @@
         <v>0</v>
       </c>
       <c r="N308" s="13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O308" s="13">
         <v>0</v>
@@ -21178,7 +21211,7 @@
         <v>34</v>
       </c>
       <c r="B311" s="1" t="s">
-        <v>35</v>
+        <v>88</v>
       </c>
       <c r="C311" s="13">
         <v>0</v>
@@ -21226,7 +21259,7 @@
     <row r="312" spans="1:16">
       <c r="A312" s="16"/>
       <c r="B312" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C312" s="13">
         <v>0</v>
@@ -21273,7 +21306,7 @@
     </row>
     <row r="313" spans="1:16">
       <c r="A313" s="17" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B313" s="3" t="s">
         <v>11</v>
@@ -21324,7 +21357,7 @@
     <row r="314" spans="1:16">
       <c r="A314" s="17"/>
       <c r="B314" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C314" s="13">
         <v>0</v>
@@ -21370,24 +21403,24 @@
       </c>
     </row>
     <row r="316" spans="1:16">
-      <c r="A316" s="25" t="s">
-        <v>53</v>
-      </c>
-      <c r="B316" s="25"/>
-      <c r="C316" s="25"/>
-      <c r="D316" s="25"/>
-      <c r="E316" s="25"/>
-      <c r="F316" s="25"/>
-      <c r="G316" s="25"/>
-      <c r="H316" s="25"/>
-      <c r="I316" s="25"/>
-      <c r="J316" s="25"/>
-      <c r="K316" s="25"/>
-      <c r="L316" s="25"/>
-      <c r="M316" s="25"/>
-      <c r="N316" s="25"/>
-      <c r="O316" s="25"/>
-      <c r="P316" s="25"/>
+      <c r="A316" s="18" t="s">
+        <v>52</v>
+      </c>
+      <c r="B316" s="18"/>
+      <c r="C316" s="18"/>
+      <c r="D316" s="18"/>
+      <c r="E316" s="18"/>
+      <c r="F316" s="18"/>
+      <c r="G316" s="18"/>
+      <c r="H316" s="18"/>
+      <c r="I316" s="18"/>
+      <c r="J316" s="18"/>
+      <c r="K316" s="18"/>
+      <c r="L316" s="18"/>
+      <c r="M316" s="18"/>
+      <c r="N316" s="18"/>
+      <c r="O316" s="18"/>
+      <c r="P316" s="18"/>
     </row>
     <row r="317" spans="1:16">
       <c r="D317" s="19" t="s">
@@ -21413,43 +21446,43 @@
       <c r="P317" s="20"/>
     </row>
     <row r="318" spans="1:16">
-      <c r="D318" s="32" t="s">
+      <c r="D318" s="37" t="s">
         <v>5</v>
       </c>
-      <c r="E318" s="32" t="s">
+      <c r="E318" s="37" t="s">
         <v>6</v>
       </c>
-      <c r="F318" s="32" t="s">
+      <c r="F318" s="37" t="s">
         <v>7</v>
       </c>
-      <c r="G318" s="33" t="s">
+      <c r="G318" s="38" t="s">
         <v>8</v>
       </c>
-      <c r="H318" s="33" t="s">
+      <c r="H318" s="38" t="s">
         <v>9</v>
       </c>
-      <c r="I318" s="33" t="s">
+      <c r="I318" s="38" t="s">
         <v>10</v>
       </c>
-      <c r="J318" s="33" t="s">
+      <c r="J318" s="38" t="s">
         <v>11</v>
       </c>
-      <c r="K318" s="32" t="s">
+      <c r="K318" s="37" t="s">
         <v>12</v>
       </c>
-      <c r="L318" s="32" t="s">
+      <c r="L318" s="37" t="s">
         <v>13</v>
       </c>
-      <c r="M318" s="32" t="s">
+      <c r="M318" s="37" t="s">
         <v>14</v>
       </c>
-      <c r="N318" s="33" t="s">
+      <c r="N318" s="38" t="s">
         <v>15</v>
       </c>
-      <c r="O318" s="33" t="s">
+      <c r="O318" s="38" t="s">
         <v>16</v>
       </c>
-      <c r="P318" s="33" t="s">
+      <c r="P318" s="38" t="s">
         <v>17</v>
       </c>
     </row>
@@ -21512,7 +21545,7 @@
         <v>1</v>
       </c>
       <c r="D320" s="12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E320" s="12">
         <v>0</v>
@@ -21524,16 +21557,16 @@
         <v>0</v>
       </c>
       <c r="H320" s="13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I320" s="13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J320" s="13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K320" s="12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L320" s="12">
         <v>0</v>
@@ -21542,7 +21575,7 @@
         <v>0</v>
       </c>
       <c r="N320" s="13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O320" s="13">
         <v>0</v>
@@ -21720,7 +21753,7 @@
         <v>0</v>
       </c>
       <c r="H324" s="13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I324" s="13">
         <v>0</v>
@@ -21729,7 +21762,7 @@
         <v>0</v>
       </c>
       <c r="K324" s="12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L324" s="12">
         <v>0</v>
@@ -21738,7 +21771,7 @@
         <v>0</v>
       </c>
       <c r="N324" s="13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O324" s="13">
         <v>0</v>
@@ -21768,7 +21801,7 @@
         <v>0</v>
       </c>
       <c r="H325" s="13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I325" s="13">
         <v>0</v>
@@ -21777,7 +21810,7 @@
         <v>0</v>
       </c>
       <c r="K325" s="12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L325" s="12">
         <v>0</v>
@@ -21786,7 +21819,7 @@
         <v>0</v>
       </c>
       <c r="N325" s="13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O325" s="13">
         <v>0</v>
@@ -22092,7 +22125,7 @@
         <v>34</v>
       </c>
       <c r="B332" s="1" t="s">
-        <v>35</v>
+        <v>88</v>
       </c>
       <c r="C332" s="13">
         <v>0</v>
@@ -22140,7 +22173,7 @@
     <row r="333" spans="1:16">
       <c r="A333" s="16"/>
       <c r="B333" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C333" s="13">
         <v>0</v>
@@ -22187,7 +22220,7 @@
     </row>
     <row r="334" spans="1:16">
       <c r="A334" s="17" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B334" s="3" t="s">
         <v>11</v>
@@ -22238,7 +22271,7 @@
     <row r="335" spans="1:16">
       <c r="A335" s="17"/>
       <c r="B335" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C335" s="13">
         <v>0</v>
@@ -22284,24 +22317,24 @@
       </c>
     </row>
     <row r="337" spans="1:16">
-      <c r="A337" s="25" t="s">
-        <v>54</v>
-      </c>
-      <c r="B337" s="25"/>
-      <c r="C337" s="25"/>
-      <c r="D337" s="25"/>
-      <c r="E337" s="25"/>
-      <c r="F337" s="25"/>
-      <c r="G337" s="25"/>
-      <c r="H337" s="25"/>
-      <c r="I337" s="25"/>
-      <c r="J337" s="25"/>
-      <c r="K337" s="25"/>
-      <c r="L337" s="25"/>
-      <c r="M337" s="25"/>
-      <c r="N337" s="25"/>
-      <c r="O337" s="25"/>
-      <c r="P337" s="25"/>
+      <c r="A337" s="18" t="s">
+        <v>53</v>
+      </c>
+      <c r="B337" s="18"/>
+      <c r="C337" s="18"/>
+      <c r="D337" s="18"/>
+      <c r="E337" s="18"/>
+      <c r="F337" s="18"/>
+      <c r="G337" s="18"/>
+      <c r="H337" s="18"/>
+      <c r="I337" s="18"/>
+      <c r="J337" s="18"/>
+      <c r="K337" s="18"/>
+      <c r="L337" s="18"/>
+      <c r="M337" s="18"/>
+      <c r="N337" s="18"/>
+      <c r="O337" s="18"/>
+      <c r="P337" s="18"/>
     </row>
     <row r="338" spans="1:16">
       <c r="D338" s="19" t="s">
@@ -22327,43 +22360,43 @@
       <c r="P338" s="20"/>
     </row>
     <row r="339" spans="1:16">
-      <c r="D339" s="32" t="s">
+      <c r="D339" s="37" t="s">
         <v>5</v>
       </c>
-      <c r="E339" s="32" t="s">
+      <c r="E339" s="37" t="s">
         <v>6</v>
       </c>
-      <c r="F339" s="32" t="s">
+      <c r="F339" s="37" t="s">
         <v>7</v>
       </c>
-      <c r="G339" s="33" t="s">
+      <c r="G339" s="38" t="s">
         <v>8</v>
       </c>
-      <c r="H339" s="33" t="s">
+      <c r="H339" s="38" t="s">
         <v>9</v>
       </c>
-      <c r="I339" s="33" t="s">
+      <c r="I339" s="38" t="s">
         <v>10</v>
       </c>
-      <c r="J339" s="33" t="s">
+      <c r="J339" s="38" t="s">
         <v>11</v>
       </c>
-      <c r="K339" s="32" t="s">
+      <c r="K339" s="37" t="s">
         <v>12</v>
       </c>
-      <c r="L339" s="32" t="s">
+      <c r="L339" s="37" t="s">
         <v>13</v>
       </c>
-      <c r="M339" s="32" t="s">
+      <c r="M339" s="37" t="s">
         <v>14</v>
       </c>
-      <c r="N339" s="33" t="s">
+      <c r="N339" s="38" t="s">
         <v>15</v>
       </c>
-      <c r="O339" s="33" t="s">
+      <c r="O339" s="38" t="s">
         <v>16</v>
       </c>
-      <c r="P339" s="33" t="s">
+      <c r="P339" s="38" t="s">
         <v>17</v>
       </c>
     </row>
@@ -22524,13 +22557,13 @@
         <v>1</v>
       </c>
       <c r="D343" s="12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E343" s="12">
         <v>0</v>
       </c>
       <c r="F343" s="12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G343" s="13">
         <v>0</v>
@@ -22542,19 +22575,19 @@
         <v>0</v>
       </c>
       <c r="J343" s="13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K343" s="12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L343" s="12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M343" s="12">
         <v>0</v>
       </c>
       <c r="N343" s="13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O343" s="13">
         <v>0</v>
@@ -22673,7 +22706,7 @@
         <v>0</v>
       </c>
       <c r="E346" s="12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F346" s="12">
         <v>0</v>
@@ -22682,7 +22715,7 @@
         <v>0</v>
       </c>
       <c r="H346" s="13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I346" s="13">
         <v>0</v>
@@ -22691,7 +22724,7 @@
         <v>0</v>
       </c>
       <c r="K346" s="12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L346" s="12">
         <v>0</v>
@@ -22700,10 +22733,10 @@
         <v>0</v>
       </c>
       <c r="N346" s="13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O346" s="13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P346" s="13">
         <v>0</v>
@@ -22822,7 +22855,7 @@
         <v>0</v>
       </c>
       <c r="F349" s="12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G349" s="13">
         <v>0</v>
@@ -22831,25 +22864,25 @@
         <v>0</v>
       </c>
       <c r="I349" s="13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J349" s="13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K349" s="12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L349" s="12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M349" s="12">
         <v>0</v>
       </c>
       <c r="N349" s="13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O349" s="13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P349" s="13">
         <v>0</v>
@@ -22863,7 +22896,7 @@
         <v>31</v>
       </c>
       <c r="C350" s="13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D350" s="12">
         <v>0</v>
@@ -22872,7 +22905,7 @@
         <v>0</v>
       </c>
       <c r="F350" s="12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G350" s="13">
         <v>0</v>
@@ -22881,7 +22914,7 @@
         <v>0</v>
       </c>
       <c r="I350" s="13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J350" s="13">
         <v>0</v>
@@ -22890,16 +22923,16 @@
         <v>0</v>
       </c>
       <c r="L350" s="12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M350" s="12">
         <v>0</v>
       </c>
       <c r="N350" s="13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O350" s="13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P350" s="13">
         <v>0</v>
@@ -23006,7 +23039,7 @@
         <v>34</v>
       </c>
       <c r="B353" s="1" t="s">
-        <v>35</v>
+        <v>88</v>
       </c>
       <c r="C353" s="13">
         <v>0</v>
@@ -23054,7 +23087,7 @@
     <row r="354" spans="1:16">
       <c r="A354" s="16"/>
       <c r="B354" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C354" s="13">
         <v>0</v>
@@ -23101,7 +23134,7 @@
     </row>
     <row r="355" spans="1:16">
       <c r="A355" s="17" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B355" s="3" t="s">
         <v>11</v>
@@ -23116,7 +23149,7 @@
         <v>0</v>
       </c>
       <c r="F355" s="12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G355" s="13">
         <v>0</v>
@@ -23128,31 +23161,31 @@
         <v>0</v>
       </c>
       <c r="J355" s="13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K355" s="12">
         <v>0</v>
       </c>
       <c r="L355" s="12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M355" s="12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N355" s="13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O355" s="13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P355" s="13">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="356" spans="1:16">
       <c r="A356" s="17"/>
       <c r="B356" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C356" s="13">
         <v>1</v>
@@ -23164,7 +23197,7 @@
         <v>0</v>
       </c>
       <c r="F356" s="12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G356" s="13">
         <v>0</v>
@@ -23176,48 +23209,48 @@
         <v>0</v>
       </c>
       <c r="J356" s="13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K356" s="12">
         <v>0</v>
       </c>
       <c r="L356" s="12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M356" s="12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N356" s="13">
         <v>0</v>
       </c>
       <c r="O356" s="13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P356" s="13">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="357" spans="1:16">
-      <c r="A357" s="26"/>
-      <c r="B357" s="27"/>
-      <c r="C357" s="28"/>
-      <c r="D357" s="29"/>
-      <c r="E357" s="29"/>
-      <c r="F357" s="29"/>
-      <c r="G357" s="28"/>
-      <c r="H357" s="28"/>
-      <c r="I357" s="28"/>
-      <c r="J357" s="28"/>
-      <c r="K357" s="29"/>
-      <c r="L357" s="29"/>
-      <c r="M357" s="29"/>
-      <c r="N357" s="28"/>
-      <c r="O357" s="28"/>
-      <c r="P357" s="28"/>
+      <c r="A357" s="31"/>
+      <c r="B357" s="32"/>
+      <c r="C357" s="33"/>
+      <c r="D357" s="34"/>
+      <c r="E357" s="34"/>
+      <c r="F357" s="34"/>
+      <c r="G357" s="33"/>
+      <c r="H357" s="33"/>
+      <c r="I357" s="33"/>
+      <c r="J357" s="33"/>
+      <c r="K357" s="34"/>
+      <c r="L357" s="34"/>
+      <c r="M357" s="34"/>
+      <c r="N357" s="33"/>
+      <c r="O357" s="33"/>
+      <c r="P357" s="33"/>
     </row>
     <row r="358" spans="1:16">
       <c r="A358" s="18" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B358" s="18"/>
       <c r="C358" s="18"/>
@@ -23259,43 +23292,43 @@
       <c r="P359" s="20"/>
     </row>
     <row r="360" spans="1:16">
-      <c r="D360" s="32" t="s">
+      <c r="D360" s="37" t="s">
         <v>5</v>
       </c>
-      <c r="E360" s="32" t="s">
+      <c r="E360" s="37" t="s">
         <v>6</v>
       </c>
-      <c r="F360" s="32" t="s">
+      <c r="F360" s="37" t="s">
         <v>7</v>
       </c>
-      <c r="G360" s="33" t="s">
+      <c r="G360" s="38" t="s">
         <v>8</v>
       </c>
-      <c r="H360" s="33" t="s">
+      <c r="H360" s="38" t="s">
         <v>9</v>
       </c>
-      <c r="I360" s="33" t="s">
+      <c r="I360" s="38" t="s">
         <v>10</v>
       </c>
-      <c r="J360" s="33" t="s">
+      <c r="J360" s="38" t="s">
         <v>11</v>
       </c>
-      <c r="K360" s="32" t="s">
+      <c r="K360" s="37" t="s">
         <v>12</v>
       </c>
-      <c r="L360" s="32" t="s">
+      <c r="L360" s="37" t="s">
         <v>13</v>
       </c>
-      <c r="M360" s="32" t="s">
+      <c r="M360" s="37" t="s">
         <v>14</v>
       </c>
-      <c r="N360" s="33" t="s">
+      <c r="N360" s="38" t="s">
         <v>15</v>
       </c>
-      <c r="O360" s="33" t="s">
+      <c r="O360" s="38" t="s">
         <v>16</v>
       </c>
-      <c r="P360" s="33" t="s">
+      <c r="P360" s="38" t="s">
         <v>17</v>
       </c>
     </row>
@@ -23938,7 +23971,7 @@
         <v>34</v>
       </c>
       <c r="B374" s="1" t="s">
-        <v>35</v>
+        <v>88</v>
       </c>
       <c r="C374" s="13">
         <v>0</v>
@@ -23986,7 +24019,7 @@
     <row r="375" spans="1:16">
       <c r="A375" s="16"/>
       <c r="B375" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C375" s="13">
         <v>0</v>
@@ -24033,7 +24066,7 @@
     </row>
     <row r="376" spans="1:16">
       <c r="A376" s="17" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B376" s="3" t="s">
         <v>11</v>
@@ -24084,7 +24117,7 @@
     <row r="377" spans="1:16">
       <c r="A377" s="17"/>
       <c r="B377" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C377" s="13">
         <v>1</v>
@@ -24131,7 +24164,7 @@
     </row>
     <row r="379" spans="1:16">
       <c r="A379" s="18" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B379" s="18"/>
       <c r="C379" s="18"/>
@@ -24173,43 +24206,43 @@
       <c r="P380" s="20"/>
     </row>
     <row r="381" spans="1:16">
-      <c r="D381" s="32" t="s">
+      <c r="D381" s="37" t="s">
         <v>5</v>
       </c>
-      <c r="E381" s="32" t="s">
+      <c r="E381" s="37" t="s">
         <v>6</v>
       </c>
-      <c r="F381" s="32" t="s">
+      <c r="F381" s="37" t="s">
         <v>7</v>
       </c>
-      <c r="G381" s="33" t="s">
+      <c r="G381" s="38" t="s">
         <v>8</v>
       </c>
-      <c r="H381" s="33" t="s">
+      <c r="H381" s="38" t="s">
         <v>9</v>
       </c>
-      <c r="I381" s="33" t="s">
+      <c r="I381" s="38" t="s">
         <v>10</v>
       </c>
-      <c r="J381" s="33" t="s">
+      <c r="J381" s="38" t="s">
         <v>11</v>
       </c>
-      <c r="K381" s="32" t="s">
+      <c r="K381" s="37" t="s">
         <v>12</v>
       </c>
-      <c r="L381" s="32" t="s">
+      <c r="L381" s="37" t="s">
         <v>13</v>
       </c>
-      <c r="M381" s="32" t="s">
+      <c r="M381" s="37" t="s">
         <v>14</v>
       </c>
-      <c r="N381" s="33" t="s">
+      <c r="N381" s="38" t="s">
         <v>15</v>
       </c>
-      <c r="O381" s="33" t="s">
+      <c r="O381" s="38" t="s">
         <v>16</v>
       </c>
-      <c r="P381" s="33" t="s">
+      <c r="P381" s="38" t="s">
         <v>17</v>
       </c>
     </row>
@@ -24852,7 +24885,7 @@
         <v>34</v>
       </c>
       <c r="B395" s="1" t="s">
-        <v>35</v>
+        <v>88</v>
       </c>
       <c r="C395" s="13">
         <v>0</v>
@@ -24900,7 +24933,7 @@
     <row r="396" spans="1:16">
       <c r="A396" s="16"/>
       <c r="B396" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C396" s="13">
         <v>1</v>
@@ -24947,7 +24980,7 @@
     </row>
     <row r="397" spans="1:16">
       <c r="A397" s="17" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B397" s="3" t="s">
         <v>11</v>
@@ -24998,7 +25031,7 @@
     <row r="398" spans="1:16">
       <c r="A398" s="17"/>
       <c r="B398" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C398" s="13">
         <v>0</v>
@@ -25045,7 +25078,7 @@
     </row>
     <row r="400" spans="1:16">
       <c r="A400" s="18" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B400" s="18"/>
       <c r="C400" s="18"/>
@@ -25087,43 +25120,43 @@
       <c r="P401" s="20"/>
     </row>
     <row r="402" spans="1:16">
-      <c r="D402" s="32" t="s">
+      <c r="D402" s="37" t="s">
         <v>5</v>
       </c>
-      <c r="E402" s="32" t="s">
+      <c r="E402" s="37" t="s">
         <v>6</v>
       </c>
-      <c r="F402" s="32" t="s">
+      <c r="F402" s="37" t="s">
         <v>7</v>
       </c>
-      <c r="G402" s="33" t="s">
+      <c r="G402" s="38" t="s">
         <v>8</v>
       </c>
-      <c r="H402" s="33" t="s">
+      <c r="H402" s="38" t="s">
         <v>9</v>
       </c>
-      <c r="I402" s="33" t="s">
+      <c r="I402" s="38" t="s">
         <v>10</v>
       </c>
-      <c r="J402" s="33" t="s">
+      <c r="J402" s="38" t="s">
         <v>11</v>
       </c>
-      <c r="K402" s="32" t="s">
+      <c r="K402" s="37" t="s">
         <v>12</v>
       </c>
-      <c r="L402" s="32" t="s">
+      <c r="L402" s="37" t="s">
         <v>13</v>
       </c>
-      <c r="M402" s="32" t="s">
+      <c r="M402" s="37" t="s">
         <v>14</v>
       </c>
-      <c r="N402" s="33" t="s">
+      <c r="N402" s="38" t="s">
         <v>15</v>
       </c>
-      <c r="O402" s="33" t="s">
+      <c r="O402" s="38" t="s">
         <v>16</v>
       </c>
-      <c r="P402" s="33" t="s">
+      <c r="P402" s="38" t="s">
         <v>17</v>
       </c>
     </row>
@@ -25766,7 +25799,7 @@
         <v>34</v>
       </c>
       <c r="B416" s="1" t="s">
-        <v>35</v>
+        <v>88</v>
       </c>
       <c r="C416" s="13">
         <v>0</v>
@@ -25814,7 +25847,7 @@
     <row r="417" spans="1:16">
       <c r="A417" s="16"/>
       <c r="B417" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C417" s="13">
         <v>0</v>
@@ -25861,7 +25894,7 @@
     </row>
     <row r="418" spans="1:16">
       <c r="A418" s="17" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B418" s="3" t="s">
         <v>11</v>
@@ -25912,7 +25945,7 @@
     <row r="419" spans="1:16">
       <c r="A419" s="17"/>
       <c r="B419" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C419" s="13">
         <v>0</v>
@@ -25959,7 +25992,7 @@
     </row>
     <row r="421" spans="1:16">
       <c r="A421" s="18" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B421" s="18"/>
       <c r="C421" s="18"/>
@@ -26001,43 +26034,43 @@
       <c r="P422" s="20"/>
     </row>
     <row r="423" spans="1:16">
-      <c r="D423" s="32" t="s">
+      <c r="D423" s="37" t="s">
         <v>5</v>
       </c>
-      <c r="E423" s="32" t="s">
+      <c r="E423" s="37" t="s">
         <v>6</v>
       </c>
-      <c r="F423" s="32" t="s">
+      <c r="F423" s="37" t="s">
         <v>7</v>
       </c>
-      <c r="G423" s="33" t="s">
+      <c r="G423" s="38" t="s">
         <v>8</v>
       </c>
-      <c r="H423" s="33" t="s">
+      <c r="H423" s="38" t="s">
         <v>9</v>
       </c>
-      <c r="I423" s="33" t="s">
+      <c r="I423" s="38" t="s">
         <v>10</v>
       </c>
-      <c r="J423" s="33" t="s">
+      <c r="J423" s="38" t="s">
         <v>11</v>
       </c>
-      <c r="K423" s="32" t="s">
+      <c r="K423" s="37" t="s">
         <v>12</v>
       </c>
-      <c r="L423" s="32" t="s">
+      <c r="L423" s="37" t="s">
         <v>13</v>
       </c>
-      <c r="M423" s="32" t="s">
+      <c r="M423" s="37" t="s">
         <v>14</v>
       </c>
-      <c r="N423" s="33" t="s">
+      <c r="N423" s="38" t="s">
         <v>15</v>
       </c>
-      <c r="O423" s="33" t="s">
+      <c r="O423" s="38" t="s">
         <v>16</v>
       </c>
-      <c r="P423" s="33" t="s">
+      <c r="P423" s="38" t="s">
         <v>17</v>
       </c>
     </row>
@@ -26680,7 +26713,7 @@
         <v>34</v>
       </c>
       <c r="B437" s="1" t="s">
-        <v>35</v>
+        <v>88</v>
       </c>
       <c r="C437" s="13">
         <v>0</v>
@@ -26728,7 +26761,7 @@
     <row r="438" spans="1:16">
       <c r="A438" s="16"/>
       <c r="B438" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C438" s="13">
         <v>0</v>
@@ -26775,7 +26808,7 @@
     </row>
     <row r="439" spans="1:16">
       <c r="A439" s="17" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B439" s="3" t="s">
         <v>11</v>
@@ -26826,7 +26859,7 @@
     <row r="440" spans="1:16">
       <c r="A440" s="17"/>
       <c r="B440" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C440" s="13">
         <v>0</v>
@@ -26873,7 +26906,7 @@
     </row>
     <row r="442" spans="1:16">
       <c r="A442" s="18" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B442" s="18"/>
       <c r="C442" s="18"/>
@@ -26915,43 +26948,43 @@
       <c r="P443" s="20"/>
     </row>
     <row r="444" spans="1:16">
-      <c r="D444" s="32" t="s">
+      <c r="D444" s="37" t="s">
         <v>5</v>
       </c>
-      <c r="E444" s="32" t="s">
+      <c r="E444" s="37" t="s">
         <v>6</v>
       </c>
-      <c r="F444" s="32" t="s">
+      <c r="F444" s="37" t="s">
         <v>7</v>
       </c>
-      <c r="G444" s="33" t="s">
+      <c r="G444" s="38" t="s">
         <v>8</v>
       </c>
-      <c r="H444" s="33" t="s">
+      <c r="H444" s="38" t="s">
         <v>9</v>
       </c>
-      <c r="I444" s="33" t="s">
+      <c r="I444" s="38" t="s">
         <v>10</v>
       </c>
-      <c r="J444" s="33" t="s">
+      <c r="J444" s="38" t="s">
         <v>11</v>
       </c>
-      <c r="K444" s="32" t="s">
+      <c r="K444" s="37" t="s">
         <v>12</v>
       </c>
-      <c r="L444" s="32" t="s">
+      <c r="L444" s="37" t="s">
         <v>13</v>
       </c>
-      <c r="M444" s="32" t="s">
+      <c r="M444" s="37" t="s">
         <v>14</v>
       </c>
-      <c r="N444" s="33" t="s">
+      <c r="N444" s="38" t="s">
         <v>15</v>
       </c>
-      <c r="O444" s="33" t="s">
+      <c r="O444" s="38" t="s">
         <v>16</v>
       </c>
-      <c r="P444" s="33" t="s">
+      <c r="P444" s="38" t="s">
         <v>17</v>
       </c>
     </row>
@@ -27594,7 +27627,7 @@
         <v>34</v>
       </c>
       <c r="B458" s="1" t="s">
-        <v>35</v>
+        <v>88</v>
       </c>
       <c r="C458" s="13">
         <v>0</v>
@@ -27642,7 +27675,7 @@
     <row r="459" spans="1:16">
       <c r="A459" s="16"/>
       <c r="B459" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C459" s="13">
         <v>0</v>
@@ -27689,7 +27722,7 @@
     </row>
     <row r="460" spans="1:16">
       <c r="A460" s="17" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B460" s="3" t="s">
         <v>11</v>
@@ -27740,7 +27773,7 @@
     <row r="461" spans="1:16">
       <c r="A461" s="17"/>
       <c r="B461" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C461" s="13">
         <v>0</v>
@@ -27787,7 +27820,7 @@
     </row>
     <row r="463" spans="1:16">
       <c r="A463" s="18" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B463" s="18"/>
       <c r="C463" s="18"/>
@@ -27829,43 +27862,43 @@
       <c r="P464" s="20"/>
     </row>
     <row r="465" spans="1:16">
-      <c r="D465" s="32" t="s">
+      <c r="D465" s="37" t="s">
         <v>5</v>
       </c>
-      <c r="E465" s="32" t="s">
+      <c r="E465" s="37" t="s">
         <v>6</v>
       </c>
-      <c r="F465" s="32" t="s">
+      <c r="F465" s="37" t="s">
         <v>7</v>
       </c>
-      <c r="G465" s="33" t="s">
+      <c r="G465" s="38" t="s">
         <v>8</v>
       </c>
-      <c r="H465" s="33" t="s">
+      <c r="H465" s="38" t="s">
         <v>9</v>
       </c>
-      <c r="I465" s="33" t="s">
+      <c r="I465" s="38" t="s">
         <v>10</v>
       </c>
-      <c r="J465" s="33" t="s">
+      <c r="J465" s="38" t="s">
         <v>11</v>
       </c>
-      <c r="K465" s="32" t="s">
+      <c r="K465" s="37" t="s">
         <v>12</v>
       </c>
-      <c r="L465" s="32" t="s">
+      <c r="L465" s="37" t="s">
         <v>13</v>
       </c>
-      <c r="M465" s="32" t="s">
+      <c r="M465" s="37" t="s">
         <v>14</v>
       </c>
-      <c r="N465" s="33" t="s">
+      <c r="N465" s="38" t="s">
         <v>15</v>
       </c>
-      <c r="O465" s="33" t="s">
+      <c r="O465" s="38" t="s">
         <v>16</v>
       </c>
-      <c r="P465" s="33" t="s">
+      <c r="P465" s="38" t="s">
         <v>17</v>
       </c>
     </row>
@@ -28508,7 +28541,7 @@
         <v>34</v>
       </c>
       <c r="B479" s="1" t="s">
-        <v>35</v>
+        <v>88</v>
       </c>
       <c r="C479" s="13">
         <v>0</v>
@@ -28556,7 +28589,7 @@
     <row r="480" spans="1:16">
       <c r="A480" s="16"/>
       <c r="B480" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C480" s="13">
         <v>0</v>
@@ -28603,7 +28636,7 @@
     </row>
     <row r="481" spans="1:16">
       <c r="A481" s="17" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B481" s="3" t="s">
         <v>11</v>
@@ -28654,7 +28687,7 @@
     <row r="482" spans="1:16">
       <c r="A482" s="17"/>
       <c r="B482" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C482" s="13">
         <v>0</v>
@@ -28701,7 +28734,7 @@
     </row>
     <row r="484" spans="1:16">
       <c r="A484" s="18" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B484" s="18"/>
       <c r="C484" s="18"/>
@@ -28743,43 +28776,43 @@
       <c r="P485" s="20"/>
     </row>
     <row r="486" spans="1:16">
-      <c r="D486" s="32" t="s">
+      <c r="D486" s="37" t="s">
         <v>5</v>
       </c>
-      <c r="E486" s="32" t="s">
+      <c r="E486" s="37" t="s">
         <v>6</v>
       </c>
-      <c r="F486" s="32" t="s">
+      <c r="F486" s="37" t="s">
         <v>7</v>
       </c>
-      <c r="G486" s="33" t="s">
+      <c r="G486" s="38" t="s">
         <v>8</v>
       </c>
-      <c r="H486" s="33" t="s">
+      <c r="H486" s="38" t="s">
         <v>9</v>
       </c>
-      <c r="I486" s="33" t="s">
+      <c r="I486" s="38" t="s">
         <v>10</v>
       </c>
-      <c r="J486" s="33" t="s">
+      <c r="J486" s="38" t="s">
         <v>11</v>
       </c>
-      <c r="K486" s="32" t="s">
+      <c r="K486" s="37" t="s">
         <v>12</v>
       </c>
-      <c r="L486" s="32" t="s">
+      <c r="L486" s="37" t="s">
         <v>13</v>
       </c>
-      <c r="M486" s="32" t="s">
+      <c r="M486" s="37" t="s">
         <v>14</v>
       </c>
-      <c r="N486" s="33" t="s">
+      <c r="N486" s="38" t="s">
         <v>15</v>
       </c>
-      <c r="O486" s="33" t="s">
+      <c r="O486" s="38" t="s">
         <v>16</v>
       </c>
-      <c r="P486" s="33" t="s">
+      <c r="P486" s="38" t="s">
         <v>17</v>
       </c>
     </row>
@@ -29422,7 +29455,7 @@
         <v>34</v>
       </c>
       <c r="B500" s="1" t="s">
-        <v>35</v>
+        <v>88</v>
       </c>
       <c r="C500" s="13">
         <v>0</v>
@@ -29470,7 +29503,7 @@
     <row r="501" spans="1:16">
       <c r="A501" s="16"/>
       <c r="B501" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C501" s="13">
         <v>0</v>
@@ -29517,7 +29550,7 @@
     </row>
     <row r="502" spans="1:16">
       <c r="A502" s="17" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B502" s="3" t="s">
         <v>11</v>
@@ -29568,7 +29601,7 @@
     <row r="503" spans="1:16">
       <c r="A503" s="17"/>
       <c r="B503" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C503" s="13">
         <v>0</v>
@@ -29615,7 +29648,7 @@
     </row>
     <row r="505" spans="1:16">
       <c r="A505" s="18" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B505" s="18"/>
       <c r="C505" s="18"/>
@@ -29657,43 +29690,43 @@
       <c r="P506" s="20"/>
     </row>
     <row r="507" spans="1:16">
-      <c r="D507" s="32" t="s">
+      <c r="D507" s="37" t="s">
         <v>5</v>
       </c>
-      <c r="E507" s="32" t="s">
+      <c r="E507" s="37" t="s">
         <v>6</v>
       </c>
-      <c r="F507" s="32" t="s">
+      <c r="F507" s="37" t="s">
         <v>7</v>
       </c>
-      <c r="G507" s="33" t="s">
+      <c r="G507" s="38" t="s">
         <v>8</v>
       </c>
-      <c r="H507" s="33" t="s">
+      <c r="H507" s="38" t="s">
         <v>9</v>
       </c>
-      <c r="I507" s="33" t="s">
+      <c r="I507" s="38" t="s">
         <v>10</v>
       </c>
-      <c r="J507" s="33" t="s">
+      <c r="J507" s="38" t="s">
         <v>11</v>
       </c>
-      <c r="K507" s="32" t="s">
+      <c r="K507" s="37" t="s">
         <v>12</v>
       </c>
-      <c r="L507" s="32" t="s">
+      <c r="L507" s="37" t="s">
         <v>13</v>
       </c>
-      <c r="M507" s="32" t="s">
+      <c r="M507" s="37" t="s">
         <v>14</v>
       </c>
-      <c r="N507" s="33" t="s">
+      <c r="N507" s="38" t="s">
         <v>15</v>
       </c>
-      <c r="O507" s="33" t="s">
+      <c r="O507" s="38" t="s">
         <v>16</v>
       </c>
-      <c r="P507" s="33" t="s">
+      <c r="P507" s="38" t="s">
         <v>17</v>
       </c>
     </row>
@@ -30336,7 +30369,7 @@
         <v>34</v>
       </c>
       <c r="B521" s="1" t="s">
-        <v>35</v>
+        <v>88</v>
       </c>
       <c r="C521" s="13">
         <v>0</v>
@@ -30384,7 +30417,7 @@
     <row r="522" spans="1:16">
       <c r="A522" s="16"/>
       <c r="B522" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C522" s="13">
         <v>1</v>
@@ -30431,7 +30464,7 @@
     </row>
     <row r="523" spans="1:16">
       <c r="A523" s="17" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B523" s="3" t="s">
         <v>11</v>
@@ -30482,7 +30515,7 @@
     <row r="524" spans="1:16">
       <c r="A524" s="17"/>
       <c r="B524" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C524" s="13">
         <v>0</v>
@@ -30529,7 +30562,7 @@
     </row>
     <row r="526" spans="1:16">
       <c r="A526" s="18" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B526" s="18"/>
       <c r="C526" s="18"/>
@@ -30571,43 +30604,43 @@
       <c r="P527" s="20"/>
     </row>
     <row r="528" spans="1:16">
-      <c r="D528" s="32" t="s">
+      <c r="D528" s="37" t="s">
         <v>5</v>
       </c>
-      <c r="E528" s="32" t="s">
+      <c r="E528" s="37" t="s">
         <v>6</v>
       </c>
-      <c r="F528" s="32" t="s">
+      <c r="F528" s="37" t="s">
         <v>7</v>
       </c>
-      <c r="G528" s="33" t="s">
+      <c r="G528" s="38" t="s">
         <v>8</v>
       </c>
-      <c r="H528" s="33" t="s">
+      <c r="H528" s="38" t="s">
         <v>9</v>
       </c>
-      <c r="I528" s="33" t="s">
+      <c r="I528" s="38" t="s">
         <v>10</v>
       </c>
-      <c r="J528" s="33" t="s">
+      <c r="J528" s="38" t="s">
         <v>11</v>
       </c>
-      <c r="K528" s="32" t="s">
+      <c r="K528" s="37" t="s">
         <v>12</v>
       </c>
-      <c r="L528" s="32" t="s">
+      <c r="L528" s="37" t="s">
         <v>13</v>
       </c>
-      <c r="M528" s="32" t="s">
+      <c r="M528" s="37" t="s">
         <v>14</v>
       </c>
-      <c r="N528" s="33" t="s">
+      <c r="N528" s="38" t="s">
         <v>15</v>
       </c>
-      <c r="O528" s="33" t="s">
+      <c r="O528" s="38" t="s">
         <v>16</v>
       </c>
-      <c r="P528" s="33" t="s">
+      <c r="P528" s="38" t="s">
         <v>17</v>
       </c>
     </row>
@@ -31250,7 +31283,7 @@
         <v>34</v>
       </c>
       <c r="B542" s="1" t="s">
-        <v>35</v>
+        <v>88</v>
       </c>
       <c r="C542" s="13">
         <v>0</v>
@@ -31298,7 +31331,7 @@
     <row r="543" spans="1:16">
       <c r="A543" s="16"/>
       <c r="B543" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C543" s="13">
         <v>0</v>
@@ -31345,7 +31378,7 @@
     </row>
     <row r="544" spans="1:16">
       <c r="A544" s="17" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B544" s="3" t="s">
         <v>11</v>
@@ -31396,7 +31429,7 @@
     <row r="545" spans="1:16">
       <c r="A545" s="17"/>
       <c r="B545" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C545" s="13">
         <v>0</v>
@@ -31443,7 +31476,7 @@
     </row>
     <row r="547" spans="1:16">
       <c r="A547" s="18" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B547" s="18"/>
       <c r="C547" s="18"/>
@@ -31485,43 +31518,43 @@
       <c r="P548" s="20"/>
     </row>
     <row r="549" spans="1:16">
-      <c r="D549" s="32" t="s">
+      <c r="D549" s="37" t="s">
         <v>5</v>
       </c>
-      <c r="E549" s="32" t="s">
+      <c r="E549" s="37" t="s">
         <v>6</v>
       </c>
-      <c r="F549" s="32" t="s">
+      <c r="F549" s="37" t="s">
         <v>7</v>
       </c>
-      <c r="G549" s="33" t="s">
+      <c r="G549" s="38" t="s">
         <v>8</v>
       </c>
-      <c r="H549" s="33" t="s">
+      <c r="H549" s="38" t="s">
         <v>9</v>
       </c>
-      <c r="I549" s="33" t="s">
+      <c r="I549" s="38" t="s">
         <v>10</v>
       </c>
-      <c r="J549" s="33" t="s">
+      <c r="J549" s="38" t="s">
         <v>11</v>
       </c>
-      <c r="K549" s="32" t="s">
+      <c r="K549" s="37" t="s">
         <v>12</v>
       </c>
-      <c r="L549" s="32" t="s">
+      <c r="L549" s="37" t="s">
         <v>13</v>
       </c>
-      <c r="M549" s="32" t="s">
+      <c r="M549" s="37" t="s">
         <v>14</v>
       </c>
-      <c r="N549" s="33" t="s">
+      <c r="N549" s="38" t="s">
         <v>15</v>
       </c>
-      <c r="O549" s="33" t="s">
+      <c r="O549" s="38" t="s">
         <v>16</v>
       </c>
-      <c r="P549" s="33" t="s">
+      <c r="P549" s="38" t="s">
         <v>17</v>
       </c>
     </row>
@@ -32164,7 +32197,7 @@
         <v>34</v>
       </c>
       <c r="B563" s="1" t="s">
-        <v>35</v>
+        <v>88</v>
       </c>
       <c r="C563" s="13">
         <v>0</v>
@@ -32212,7 +32245,7 @@
     <row r="564" spans="1:16">
       <c r="A564" s="16"/>
       <c r="B564" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C564" s="13">
         <v>0</v>
@@ -32259,7 +32292,7 @@
     </row>
     <row r="565" spans="1:16">
       <c r="A565" s="17" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B565" s="3" t="s">
         <v>11</v>
@@ -32310,7 +32343,7 @@
     <row r="566" spans="1:16">
       <c r="A566" s="17"/>
       <c r="B566" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C566" s="13">
         <v>0</v>
@@ -32357,7 +32390,7 @@
     </row>
     <row r="568" spans="1:16">
       <c r="A568" s="15" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B568" s="15"/>
       <c r="C568" s="15"/>
@@ -32399,43 +32432,43 @@
       <c r="P569" s="13"/>
     </row>
     <row r="570" spans="1:16">
-      <c r="D570" s="32" t="s">
+      <c r="D570" s="37" t="s">
         <v>5</v>
       </c>
-      <c r="E570" s="32" t="s">
+      <c r="E570" s="37" t="s">
         <v>6</v>
       </c>
-      <c r="F570" s="32" t="s">
+      <c r="F570" s="37" t="s">
         <v>7</v>
       </c>
-      <c r="G570" s="33" t="s">
+      <c r="G570" s="38" t="s">
         <v>8</v>
       </c>
-      <c r="H570" s="33" t="s">
+      <c r="H570" s="38" t="s">
         <v>9</v>
       </c>
-      <c r="I570" s="33" t="s">
+      <c r="I570" s="38" t="s">
         <v>10</v>
       </c>
-      <c r="J570" s="33" t="s">
+      <c r="J570" s="38" t="s">
         <v>11</v>
       </c>
-      <c r="K570" s="32" t="s">
+      <c r="K570" s="37" t="s">
         <v>12</v>
       </c>
-      <c r="L570" s="32" t="s">
+      <c r="L570" s="37" t="s">
         <v>13</v>
       </c>
-      <c r="M570" s="32" t="s">
+      <c r="M570" s="37" t="s">
         <v>14</v>
       </c>
-      <c r="N570" s="33" t="s">
+      <c r="N570" s="38" t="s">
         <v>15</v>
       </c>
-      <c r="O570" s="33" t="s">
+      <c r="O570" s="38" t="s">
         <v>16</v>
       </c>
-      <c r="P570" s="33" t="s">
+      <c r="P570" s="38" t="s">
         <v>17</v>
       </c>
     </row>
@@ -33078,7 +33111,7 @@
         <v>34</v>
       </c>
       <c r="B584" s="1" t="s">
-        <v>35</v>
+        <v>88</v>
       </c>
       <c r="C584" s="13">
         <v>0</v>
@@ -33126,7 +33159,7 @@
     <row r="585" spans="1:16">
       <c r="A585" s="10"/>
       <c r="B585" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C585" s="13">
         <v>0</v>
@@ -33173,7 +33206,7 @@
     </row>
     <row r="586" spans="1:16">
       <c r="A586" s="11" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B586" s="3" t="s">
         <v>11</v>
@@ -33224,7 +33257,7 @@
     <row r="587" spans="1:16">
       <c r="A587" s="11"/>
       <c r="B587" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C587" s="13">
         <v>0</v>
@@ -33271,7 +33304,7 @@
     </row>
     <row r="589" spans="1:16">
       <c r="A589" s="18" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B589" s="18"/>
       <c r="C589" s="18"/>
@@ -33313,43 +33346,43 @@
       <c r="P590" s="20"/>
     </row>
     <row r="591" spans="1:16">
-      <c r="D591" s="32" t="s">
+      <c r="D591" s="37" t="s">
         <v>5</v>
       </c>
-      <c r="E591" s="32" t="s">
+      <c r="E591" s="37" t="s">
         <v>6</v>
       </c>
-      <c r="F591" s="32" t="s">
+      <c r="F591" s="37" t="s">
         <v>7</v>
       </c>
-      <c r="G591" s="33" t="s">
+      <c r="G591" s="38" t="s">
         <v>8</v>
       </c>
-      <c r="H591" s="33" t="s">
+      <c r="H591" s="38" t="s">
         <v>9</v>
       </c>
-      <c r="I591" s="33" t="s">
+      <c r="I591" s="38" t="s">
         <v>10</v>
       </c>
-      <c r="J591" s="33" t="s">
+      <c r="J591" s="38" t="s">
         <v>11</v>
       </c>
-      <c r="K591" s="32" t="s">
+      <c r="K591" s="37" t="s">
         <v>12</v>
       </c>
-      <c r="L591" s="32" t="s">
+      <c r="L591" s="37" t="s">
         <v>13</v>
       </c>
-      <c r="M591" s="32" t="s">
+      <c r="M591" s="37" t="s">
         <v>14</v>
       </c>
-      <c r="N591" s="33" t="s">
+      <c r="N591" s="38" t="s">
         <v>15</v>
       </c>
-      <c r="O591" s="33" t="s">
+      <c r="O591" s="38" t="s">
         <v>16</v>
       </c>
-      <c r="P591" s="33" t="s">
+      <c r="P591" s="38" t="s">
         <v>17</v>
       </c>
     </row>
@@ -33992,7 +34025,7 @@
         <v>34</v>
       </c>
       <c r="B605" s="1" t="s">
-        <v>35</v>
+        <v>88</v>
       </c>
       <c r="C605" s="13">
         <v>0</v>
@@ -34040,7 +34073,7 @@
     <row r="606" spans="1:16">
       <c r="A606" s="16"/>
       <c r="B606" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C606" s="13">
         <v>0</v>
@@ -34087,7 +34120,7 @@
     </row>
     <row r="607" spans="1:16">
       <c r="A607" s="17" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B607" s="3" t="s">
         <v>11</v>
@@ -34138,7 +34171,7 @@
     <row r="608" spans="1:16">
       <c r="A608" s="17"/>
       <c r="B608" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C608" s="13">
         <v>0</v>
@@ -34185,7 +34218,7 @@
     </row>
     <row r="610" spans="1:16">
       <c r="A610" s="18" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B610" s="18"/>
       <c r="C610" s="18"/>
@@ -34227,43 +34260,43 @@
       <c r="P611" s="20"/>
     </row>
     <row r="612" spans="1:16">
-      <c r="D612" s="32" t="s">
+      <c r="D612" s="37" t="s">
         <v>5</v>
       </c>
-      <c r="E612" s="32" t="s">
+      <c r="E612" s="37" t="s">
         <v>6</v>
       </c>
-      <c r="F612" s="32" t="s">
+      <c r="F612" s="37" t="s">
         <v>7</v>
       </c>
-      <c r="G612" s="33" t="s">
+      <c r="G612" s="38" t="s">
         <v>8</v>
       </c>
-      <c r="H612" s="33" t="s">
+      <c r="H612" s="38" t="s">
         <v>9</v>
       </c>
-      <c r="I612" s="33" t="s">
+      <c r="I612" s="38" t="s">
         <v>10</v>
       </c>
-      <c r="J612" s="33" t="s">
+      <c r="J612" s="38" t="s">
         <v>11</v>
       </c>
-      <c r="K612" s="32" t="s">
+      <c r="K612" s="37" t="s">
         <v>12</v>
       </c>
-      <c r="L612" s="32" t="s">
+      <c r="L612" s="37" t="s">
         <v>13</v>
       </c>
-      <c r="M612" s="32" t="s">
+      <c r="M612" s="37" t="s">
         <v>14</v>
       </c>
-      <c r="N612" s="33" t="s">
+      <c r="N612" s="38" t="s">
         <v>15</v>
       </c>
-      <c r="O612" s="33" t="s">
+      <c r="O612" s="38" t="s">
         <v>16</v>
       </c>
-      <c r="P612" s="33" t="s">
+      <c r="P612" s="38" t="s">
         <v>17</v>
       </c>
     </row>
@@ -34906,7 +34939,7 @@
         <v>34</v>
       </c>
       <c r="B626" s="1" t="s">
-        <v>35</v>
+        <v>88</v>
       </c>
       <c r="C626" s="13">
         <v>1</v>
@@ -34954,7 +34987,7 @@
     <row r="627" spans="1:16">
       <c r="A627" s="16"/>
       <c r="B627" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C627" s="13">
         <v>1</v>
@@ -35001,7 +35034,7 @@
     </row>
     <row r="628" spans="1:16">
       <c r="A628" s="17" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B628" s="3" t="s">
         <v>11</v>
@@ -35052,7 +35085,7 @@
     <row r="629" spans="1:16">
       <c r="A629" s="17"/>
       <c r="B629" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C629" s="13">
         <v>0</v>
@@ -35099,7 +35132,7 @@
     </row>
     <row r="631" spans="1:16">
       <c r="A631" s="18" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B631" s="18"/>
       <c r="C631" s="18"/>
@@ -35141,43 +35174,43 @@
       <c r="P632" s="20"/>
     </row>
     <row r="633" spans="1:16">
-      <c r="D633" s="32" t="s">
+      <c r="D633" s="37" t="s">
         <v>5</v>
       </c>
-      <c r="E633" s="32" t="s">
+      <c r="E633" s="37" t="s">
         <v>6</v>
       </c>
-      <c r="F633" s="32" t="s">
+      <c r="F633" s="37" t="s">
         <v>7</v>
       </c>
-      <c r="G633" s="33" t="s">
+      <c r="G633" s="38" t="s">
         <v>8</v>
       </c>
-      <c r="H633" s="33" t="s">
+      <c r="H633" s="38" t="s">
         <v>9</v>
       </c>
-      <c r="I633" s="33" t="s">
+      <c r="I633" s="38" t="s">
         <v>10</v>
       </c>
-      <c r="J633" s="33" t="s">
+      <c r="J633" s="38" t="s">
         <v>11</v>
       </c>
-      <c r="K633" s="32" t="s">
+      <c r="K633" s="37" t="s">
         <v>12</v>
       </c>
-      <c r="L633" s="32" t="s">
+      <c r="L633" s="37" t="s">
         <v>13</v>
       </c>
-      <c r="M633" s="32" t="s">
+      <c r="M633" s="37" t="s">
         <v>14</v>
       </c>
-      <c r="N633" s="33" t="s">
+      <c r="N633" s="38" t="s">
         <v>15</v>
       </c>
-      <c r="O633" s="33" t="s">
+      <c r="O633" s="38" t="s">
         <v>16</v>
       </c>
-      <c r="P633" s="33" t="s">
+      <c r="P633" s="38" t="s">
         <v>17</v>
       </c>
     </row>
@@ -35820,7 +35853,7 @@
         <v>34</v>
       </c>
       <c r="B647" s="1" t="s">
-        <v>35</v>
+        <v>88</v>
       </c>
       <c r="C647" s="13">
         <v>0</v>
@@ -35868,7 +35901,7 @@
     <row r="648" spans="1:16">
       <c r="A648" s="16"/>
       <c r="B648" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C648" s="13">
         <v>1</v>
@@ -35915,7 +35948,7 @@
     </row>
     <row r="649" spans="1:16">
       <c r="A649" s="17" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B649" s="3" t="s">
         <v>11</v>
@@ -35966,7 +35999,7 @@
     <row r="650" spans="1:16">
       <c r="A650" s="17"/>
       <c r="B650" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C650" s="13">
         <v>1</v>
@@ -36012,86 +36045,86 @@
       </c>
     </row>
     <row r="652" spans="1:16">
-      <c r="A652" s="25" t="s">
-        <v>67</v>
-      </c>
-      <c r="B652" s="25"/>
-      <c r="C652" s="25"/>
-      <c r="D652" s="25"/>
-      <c r="E652" s="25"/>
-      <c r="F652" s="25"/>
-      <c r="G652" s="25"/>
-      <c r="H652" s="25"/>
-      <c r="I652" s="25"/>
-      <c r="J652" s="25"/>
-      <c r="K652" s="25"/>
-      <c r="L652" s="25"/>
-      <c r="M652" s="25"/>
-      <c r="N652" s="25"/>
-      <c r="O652" s="25"/>
-      <c r="P652" s="25"/>
+      <c r="A652" s="18" t="s">
+        <v>66</v>
+      </c>
+      <c r="B652" s="18"/>
+      <c r="C652" s="18"/>
+      <c r="D652" s="18"/>
+      <c r="E652" s="18"/>
+      <c r="F652" s="18"/>
+      <c r="G652" s="18"/>
+      <c r="H652" s="18"/>
+      <c r="I652" s="18"/>
+      <c r="J652" s="18"/>
+      <c r="K652" s="18"/>
+      <c r="L652" s="18"/>
+      <c r="M652" s="18"/>
+      <c r="N652" s="18"/>
+      <c r="O652" s="18"/>
+      <c r="P652" s="18"/>
     </row>
     <row r="653" spans="1:16">
-      <c r="D653" s="19" t="s">
-        <v>1</v>
-      </c>
-      <c r="E653" s="19"/>
-      <c r="F653" s="19"/>
-      <c r="G653" s="20" t="s">
+      <c r="D653" s="28" t="s">
+        <v>1</v>
+      </c>
+      <c r="E653" s="29"/>
+      <c r="F653" s="30"/>
+      <c r="G653" s="25" t="s">
         <v>2</v>
       </c>
-      <c r="H653" s="20"/>
-      <c r="I653" s="20"/>
-      <c r="J653" s="20"/>
-      <c r="K653" s="19" t="s">
+      <c r="H653" s="26"/>
+      <c r="I653" s="26"/>
+      <c r="J653" s="27"/>
+      <c r="K653" s="28" t="s">
         <v>3</v>
       </c>
-      <c r="L653" s="19"/>
-      <c r="M653" s="19"/>
-      <c r="N653" s="20" t="s">
+      <c r="L653" s="29"/>
+      <c r="M653" s="30"/>
+      <c r="N653" s="25" t="s">
         <v>4</v>
       </c>
-      <c r="O653" s="20"/>
-      <c r="P653" s="20"/>
+      <c r="O653" s="26"/>
+      <c r="P653" s="27"/>
     </row>
     <row r="654" spans="1:16">
-      <c r="D654" s="32" t="s">
+      <c r="D654" s="37" t="s">
         <v>5</v>
       </c>
-      <c r="E654" s="32" t="s">
+      <c r="E654" s="37" t="s">
         <v>6</v>
       </c>
-      <c r="F654" s="32" t="s">
+      <c r="F654" s="37" t="s">
         <v>7</v>
       </c>
-      <c r="G654" s="33" t="s">
+      <c r="G654" s="38" t="s">
         <v>8</v>
       </c>
-      <c r="H654" s="33" t="s">
+      <c r="H654" s="38" t="s">
         <v>9</v>
       </c>
-      <c r="I654" s="33" t="s">
+      <c r="I654" s="38" t="s">
         <v>10</v>
       </c>
-      <c r="J654" s="33" t="s">
+      <c r="J654" s="38" t="s">
         <v>11</v>
       </c>
-      <c r="K654" s="32" t="s">
+      <c r="K654" s="37" t="s">
         <v>12</v>
       </c>
-      <c r="L654" s="32" t="s">
+      <c r="L654" s="37" t="s">
         <v>13</v>
       </c>
-      <c r="M654" s="32" t="s">
+      <c r="M654" s="37" t="s">
         <v>14</v>
       </c>
-      <c r="N654" s="33" t="s">
+      <c r="N654" s="38" t="s">
         <v>15</v>
       </c>
-      <c r="O654" s="33" t="s">
+      <c r="O654" s="38" t="s">
         <v>16</v>
       </c>
-      <c r="P654" s="33" t="s">
+      <c r="P654" s="38" t="s">
         <v>17</v>
       </c>
     </row>
@@ -36252,7 +36285,7 @@
         <v>1</v>
       </c>
       <c r="D658" s="12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E658" s="12">
         <v>0</v>
@@ -36270,10 +36303,10 @@
         <v>0</v>
       </c>
       <c r="J658" s="13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K658" s="12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L658" s="12">
         <v>0</v>
@@ -36282,7 +36315,7 @@
         <v>0</v>
       </c>
       <c r="N658" s="13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O658" s="13">
         <v>0</v>
@@ -36591,10 +36624,10 @@
         <v>31</v>
       </c>
       <c r="C665" s="13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D665" s="12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E665" s="12">
         <v>0</v>
@@ -36603,7 +36636,7 @@
         <v>0</v>
       </c>
       <c r="G665" s="13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H665" s="13">
         <v>0</v>
@@ -36615,7 +36648,7 @@
         <v>0</v>
       </c>
       <c r="K665" s="12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L665" s="12">
         <v>0</v>
@@ -36624,7 +36657,7 @@
         <v>0</v>
       </c>
       <c r="N665" s="13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O665" s="13">
         <v>0</v>
@@ -36734,7 +36767,7 @@
         <v>34</v>
       </c>
       <c r="B668" s="1" t="s">
-        <v>35</v>
+        <v>88</v>
       </c>
       <c r="C668" s="13">
         <v>0</v>
@@ -36782,7 +36815,7 @@
     <row r="669" spans="1:16">
       <c r="A669" s="16"/>
       <c r="B669" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C669" s="13">
         <v>0</v>
@@ -36829,7 +36862,7 @@
     </row>
     <row r="670" spans="1:16">
       <c r="A670" s="17" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B670" s="3" t="s">
         <v>11</v>
@@ -36880,7 +36913,7 @@
     <row r="671" spans="1:16">
       <c r="A671" s="17"/>
       <c r="B671" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C671" s="13">
         <v>0</v>
@@ -36926,24 +36959,24 @@
       </c>
     </row>
     <row r="673" spans="1:16">
-      <c r="A673" s="25" t="s">
-        <v>69</v>
-      </c>
-      <c r="B673" s="25"/>
-      <c r="C673" s="25"/>
-      <c r="D673" s="25"/>
-      <c r="E673" s="25"/>
-      <c r="F673" s="25"/>
-      <c r="G673" s="25"/>
-      <c r="H673" s="25"/>
-      <c r="I673" s="25"/>
-      <c r="J673" s="25"/>
-      <c r="K673" s="25"/>
-      <c r="L673" s="25"/>
-      <c r="M673" s="25"/>
-      <c r="N673" s="25"/>
-      <c r="O673" s="25"/>
-      <c r="P673" s="25"/>
+      <c r="A673" s="18" t="s">
+        <v>68</v>
+      </c>
+      <c r="B673" s="18"/>
+      <c r="C673" s="18"/>
+      <c r="D673" s="18"/>
+      <c r="E673" s="18"/>
+      <c r="F673" s="18"/>
+      <c r="G673" s="18"/>
+      <c r="H673" s="18"/>
+      <c r="I673" s="18"/>
+      <c r="J673" s="18"/>
+      <c r="K673" s="18"/>
+      <c r="L673" s="18"/>
+      <c r="M673" s="18"/>
+      <c r="N673" s="18"/>
+      <c r="O673" s="18"/>
+      <c r="P673" s="18"/>
     </row>
     <row r="674" spans="1:16">
       <c r="D674" s="19" t="s">
@@ -36969,43 +37002,43 @@
       <c r="P674" s="20"/>
     </row>
     <row r="675" spans="1:16">
-      <c r="D675" s="32" t="s">
+      <c r="D675" s="37" t="s">
         <v>5</v>
       </c>
-      <c r="E675" s="32" t="s">
+      <c r="E675" s="37" t="s">
         <v>6</v>
       </c>
-      <c r="F675" s="32" t="s">
+      <c r="F675" s="37" t="s">
         <v>7</v>
       </c>
-      <c r="G675" s="33" t="s">
+      <c r="G675" s="38" t="s">
         <v>8</v>
       </c>
-      <c r="H675" s="33" t="s">
+      <c r="H675" s="38" t="s">
         <v>9</v>
       </c>
-      <c r="I675" s="33" t="s">
+      <c r="I675" s="38" t="s">
         <v>10</v>
       </c>
-      <c r="J675" s="33" t="s">
+      <c r="J675" s="38" t="s">
         <v>11</v>
       </c>
-      <c r="K675" s="32" t="s">
+      <c r="K675" s="37" t="s">
         <v>12</v>
       </c>
-      <c r="L675" s="32" t="s">
+      <c r="L675" s="37" t="s">
         <v>13</v>
       </c>
-      <c r="M675" s="32" t="s">
+      <c r="M675" s="37" t="s">
         <v>14</v>
       </c>
-      <c r="N675" s="33" t="s">
+      <c r="N675" s="38" t="s">
         <v>15</v>
       </c>
-      <c r="O675" s="33" t="s">
+      <c r="O675" s="38" t="s">
         <v>16</v>
       </c>
-      <c r="P675" s="33" t="s">
+      <c r="P675" s="38" t="s">
         <v>17</v>
       </c>
     </row>
@@ -37166,7 +37199,7 @@
         <v>1</v>
       </c>
       <c r="D679" s="12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E679" s="12">
         <v>0</v>
@@ -37184,10 +37217,10 @@
         <v>0</v>
       </c>
       <c r="J679" s="13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K679" s="12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L679" s="12">
         <v>0</v>
@@ -37196,7 +37229,7 @@
         <v>0</v>
       </c>
       <c r="N679" s="13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O679" s="13">
         <v>0</v>
@@ -37264,7 +37297,7 @@
         <v>1</v>
       </c>
       <c r="D681" s="12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E681" s="12">
         <v>0</v>
@@ -37276,7 +37309,7 @@
         <v>0</v>
       </c>
       <c r="H681" s="13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I681" s="13">
         <v>0</v>
@@ -37285,7 +37318,7 @@
         <v>0</v>
       </c>
       <c r="K681" s="12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L681" s="12">
         <v>0</v>
@@ -37294,7 +37327,7 @@
         <v>0</v>
       </c>
       <c r="N681" s="13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O681" s="13">
         <v>0</v>
@@ -37312,7 +37345,7 @@
         <v>1</v>
       </c>
       <c r="D682" s="12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E682" s="12">
         <v>0</v>
@@ -37324,7 +37357,7 @@
         <v>0</v>
       </c>
       <c r="H682" s="13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I682" s="13">
         <v>0</v>
@@ -37333,7 +37366,7 @@
         <v>0</v>
       </c>
       <c r="K682" s="12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L682" s="12">
         <v>0</v>
@@ -37342,7 +37375,7 @@
         <v>0</v>
       </c>
       <c r="N682" s="13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O682" s="13">
         <v>0</v>
@@ -37410,7 +37443,7 @@
         <v>1</v>
       </c>
       <c r="D684" s="12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E684" s="12">
         <v>0</v>
@@ -37425,13 +37458,13 @@
         <v>0</v>
       </c>
       <c r="I684" s="13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J684" s="13">
         <v>0</v>
       </c>
       <c r="K684" s="12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L684" s="12">
         <v>0</v>
@@ -37440,7 +37473,7 @@
         <v>0</v>
       </c>
       <c r="N684" s="13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O684" s="13">
         <v>0</v>
@@ -37505,10 +37538,10 @@
         <v>31</v>
       </c>
       <c r="C686" s="13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D686" s="12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E686" s="12">
         <v>0</v>
@@ -37517,7 +37550,7 @@
         <v>0</v>
       </c>
       <c r="G686" s="13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H686" s="13">
         <v>0</v>
@@ -37529,7 +37562,7 @@
         <v>0</v>
       </c>
       <c r="K686" s="12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L686" s="12">
         <v>0</v>
@@ -37538,7 +37571,7 @@
         <v>0</v>
       </c>
       <c r="N686" s="13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O686" s="13">
         <v>0</v>
@@ -37648,7 +37681,7 @@
         <v>34</v>
       </c>
       <c r="B689" s="1" t="s">
-        <v>35</v>
+        <v>88</v>
       </c>
       <c r="C689" s="13">
         <v>0</v>
@@ -37696,7 +37729,7 @@
     <row r="690" spans="1:16">
       <c r="A690" s="16"/>
       <c r="B690" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C690" s="13">
         <v>0</v>
@@ -37743,7 +37776,7 @@
     </row>
     <row r="691" spans="1:16">
       <c r="A691" s="17" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B691" s="3" t="s">
         <v>11</v>
@@ -37794,7 +37827,7 @@
     <row r="692" spans="1:16">
       <c r="A692" s="17"/>
       <c r="B692" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C692" s="13">
         <v>0</v>
@@ -37841,7 +37874,7 @@
     </row>
     <row r="694" spans="1:16">
       <c r="A694" s="18" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B694" s="18"/>
       <c r="C694" s="18"/>
@@ -37883,43 +37916,43 @@
       <c r="P695" s="20"/>
     </row>
     <row r="696" spans="1:16">
-      <c r="D696" s="32" t="s">
+      <c r="D696" s="37" t="s">
         <v>5</v>
       </c>
-      <c r="E696" s="32" t="s">
+      <c r="E696" s="37" t="s">
         <v>6</v>
       </c>
-      <c r="F696" s="32" t="s">
+      <c r="F696" s="37" t="s">
         <v>7</v>
       </c>
-      <c r="G696" s="33" t="s">
+      <c r="G696" s="38" t="s">
         <v>8</v>
       </c>
-      <c r="H696" s="33" t="s">
+      <c r="H696" s="38" t="s">
         <v>9</v>
       </c>
-      <c r="I696" s="33" t="s">
+      <c r="I696" s="38" t="s">
         <v>10</v>
       </c>
-      <c r="J696" s="33" t="s">
+      <c r="J696" s="38" t="s">
         <v>11</v>
       </c>
-      <c r="K696" s="32" t="s">
+      <c r="K696" s="37" t="s">
         <v>12</v>
       </c>
-      <c r="L696" s="32" t="s">
+      <c r="L696" s="37" t="s">
         <v>13</v>
       </c>
-      <c r="M696" s="32" t="s">
+      <c r="M696" s="37" t="s">
         <v>14</v>
       </c>
-      <c r="N696" s="33" t="s">
+      <c r="N696" s="38" t="s">
         <v>15</v>
       </c>
-      <c r="O696" s="33" t="s">
+      <c r="O696" s="38" t="s">
         <v>16</v>
       </c>
-      <c r="P696" s="33" t="s">
+      <c r="P696" s="38" t="s">
         <v>17</v>
       </c>
     </row>
@@ -38562,7 +38595,7 @@
         <v>34</v>
       </c>
       <c r="B710" s="1" t="s">
-        <v>35</v>
+        <v>88</v>
       </c>
       <c r="C710" s="13">
         <v>0</v>
@@ -38610,7 +38643,7 @@
     <row r="711" spans="1:16">
       <c r="A711" s="16"/>
       <c r="B711" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C711" s="13">
         <v>1</v>
@@ -38657,7 +38690,7 @@
     </row>
     <row r="712" spans="1:16">
       <c r="A712" s="17" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B712" s="3" t="s">
         <v>11</v>
@@ -38708,7 +38741,7 @@
     <row r="713" spans="1:16">
       <c r="A713" s="17"/>
       <c r="B713" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C713" s="13">
         <v>0</v>
@@ -38755,7 +38788,7 @@
     </row>
     <row r="715" spans="1:16">
       <c r="A715" s="18" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B715" s="18"/>
       <c r="C715" s="18"/>
@@ -38797,43 +38830,43 @@
       <c r="P716" s="20"/>
     </row>
     <row r="717" spans="1:16">
-      <c r="D717" s="32" t="s">
+      <c r="D717" s="37" t="s">
         <v>5</v>
       </c>
-      <c r="E717" s="32" t="s">
+      <c r="E717" s="37" t="s">
         <v>6</v>
       </c>
-      <c r="F717" s="32" t="s">
+      <c r="F717" s="37" t="s">
         <v>7</v>
       </c>
-      <c r="G717" s="33" t="s">
+      <c r="G717" s="38" t="s">
         <v>8</v>
       </c>
-      <c r="H717" s="33" t="s">
+      <c r="H717" s="38" t="s">
         <v>9</v>
       </c>
-      <c r="I717" s="33" t="s">
+      <c r="I717" s="38" t="s">
         <v>10</v>
       </c>
-      <c r="J717" s="33" t="s">
+      <c r="J717" s="38" t="s">
         <v>11</v>
       </c>
-      <c r="K717" s="32" t="s">
+      <c r="K717" s="37" t="s">
         <v>12</v>
       </c>
-      <c r="L717" s="32" t="s">
+      <c r="L717" s="37" t="s">
         <v>13</v>
       </c>
-      <c r="M717" s="32" t="s">
+      <c r="M717" s="37" t="s">
         <v>14</v>
       </c>
-      <c r="N717" s="33" t="s">
+      <c r="N717" s="38" t="s">
         <v>15</v>
       </c>
-      <c r="O717" s="33" t="s">
+      <c r="O717" s="38" t="s">
         <v>16</v>
       </c>
-      <c r="P717" s="33" t="s">
+      <c r="P717" s="38" t="s">
         <v>17</v>
       </c>
     </row>
@@ -39476,7 +39509,7 @@
         <v>34</v>
       </c>
       <c r="B731" s="1" t="s">
-        <v>35</v>
+        <v>88</v>
       </c>
       <c r="C731" s="13">
         <v>0</v>
@@ -39524,7 +39557,7 @@
     <row r="732" spans="1:16">
       <c r="A732" s="16"/>
       <c r="B732" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C732" s="13">
         <v>0</v>
@@ -39571,7 +39604,7 @@
     </row>
     <row r="733" spans="1:16">
       <c r="A733" s="17" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B733" s="3" t="s">
         <v>11</v>
@@ -39622,7 +39655,7 @@
     <row r="734" spans="1:16">
       <c r="A734" s="17"/>
       <c r="B734" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C734" s="13">
         <v>0</v>
@@ -39668,86 +39701,86 @@
       </c>
     </row>
     <row r="736" spans="1:16">
-      <c r="A736" s="25" t="s">
-        <v>72</v>
-      </c>
-      <c r="B736" s="25"/>
-      <c r="C736" s="25"/>
-      <c r="D736" s="25"/>
-      <c r="E736" s="25"/>
-      <c r="F736" s="25"/>
-      <c r="G736" s="25"/>
-      <c r="H736" s="25"/>
-      <c r="I736" s="25"/>
-      <c r="J736" s="25"/>
-      <c r="K736" s="25"/>
-      <c r="L736" s="25"/>
-      <c r="M736" s="25"/>
-      <c r="N736" s="25"/>
-      <c r="O736" s="25"/>
-      <c r="P736" s="25"/>
+      <c r="A736" s="18" t="s">
+        <v>71</v>
+      </c>
+      <c r="B736" s="18"/>
+      <c r="C736" s="18"/>
+      <c r="D736" s="18"/>
+      <c r="E736" s="18"/>
+      <c r="F736" s="18"/>
+      <c r="G736" s="18"/>
+      <c r="H736" s="18"/>
+      <c r="I736" s="18"/>
+      <c r="J736" s="18"/>
+      <c r="K736" s="18"/>
+      <c r="L736" s="18"/>
+      <c r="M736" s="18"/>
+      <c r="N736" s="18"/>
+      <c r="O736" s="18"/>
+      <c r="P736" s="18"/>
     </row>
     <row r="737" spans="1:16">
-      <c r="D737" s="19" t="s">
-        <v>1</v>
-      </c>
-      <c r="E737" s="19"/>
-      <c r="F737" s="19"/>
-      <c r="G737" s="20" t="s">
+      <c r="D737" s="28" t="s">
+        <v>1</v>
+      </c>
+      <c r="E737" s="29"/>
+      <c r="F737" s="30"/>
+      <c r="G737" s="25" t="s">
         <v>2</v>
       </c>
-      <c r="H737" s="20"/>
-      <c r="I737" s="20"/>
-      <c r="J737" s="20"/>
-      <c r="K737" s="19" t="s">
+      <c r="H737" s="26"/>
+      <c r="I737" s="26"/>
+      <c r="J737" s="27"/>
+      <c r="K737" s="28" t="s">
         <v>3</v>
       </c>
-      <c r="L737" s="19"/>
-      <c r="M737" s="19"/>
-      <c r="N737" s="20" t="s">
+      <c r="L737" s="29"/>
+      <c r="M737" s="30"/>
+      <c r="N737" s="25" t="s">
         <v>4</v>
       </c>
-      <c r="O737" s="20"/>
-      <c r="P737" s="20"/>
+      <c r="O737" s="26"/>
+      <c r="P737" s="27"/>
     </row>
     <row r="738" spans="1:16">
-      <c r="D738" s="32" t="s">
+      <c r="D738" s="37" t="s">
         <v>5</v>
       </c>
-      <c r="E738" s="32" t="s">
+      <c r="E738" s="37" t="s">
         <v>6</v>
       </c>
-      <c r="F738" s="32" t="s">
+      <c r="F738" s="37" t="s">
         <v>7</v>
       </c>
-      <c r="G738" s="33" t="s">
+      <c r="G738" s="38" t="s">
         <v>8</v>
       </c>
-      <c r="H738" s="33" t="s">
+      <c r="H738" s="38" t="s">
         <v>9</v>
       </c>
-      <c r="I738" s="33" t="s">
+      <c r="I738" s="38" t="s">
         <v>10</v>
       </c>
-      <c r="J738" s="33" t="s">
+      <c r="J738" s="38" t="s">
         <v>11</v>
       </c>
-      <c r="K738" s="32" t="s">
+      <c r="K738" s="37" t="s">
         <v>12</v>
       </c>
-      <c r="L738" s="32" t="s">
+      <c r="L738" s="37" t="s">
         <v>13</v>
       </c>
-      <c r="M738" s="32" t="s">
+      <c r="M738" s="37" t="s">
         <v>14</v>
       </c>
-      <c r="N738" s="33" t="s">
+      <c r="N738" s="38" t="s">
         <v>15</v>
       </c>
-      <c r="O738" s="33" t="s">
+      <c r="O738" s="38" t="s">
         <v>16</v>
       </c>
-      <c r="P738" s="33" t="s">
+      <c r="P738" s="38" t="s">
         <v>17</v>
       </c>
     </row>
@@ -39914,7 +39947,7 @@
         <v>0</v>
       </c>
       <c r="F742" s="12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G742" s="13">
         <v>0</v>
@@ -39926,22 +39959,22 @@
         <v>0</v>
       </c>
       <c r="J742" s="13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K742" s="12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L742" s="12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M742" s="12">
         <v>0</v>
       </c>
       <c r="N742" s="13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O742" s="13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P742" s="13">
         <v>0</v>
@@ -39959,7 +39992,7 @@
         <v>0</v>
       </c>
       <c r="E743" s="12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F743" s="12">
         <v>0</v>
@@ -39974,22 +40007,22 @@
         <v>0</v>
       </c>
       <c r="J743" s="13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K743" s="12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L743" s="12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M743" s="12">
         <v>0</v>
       </c>
       <c r="N743" s="13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O743" s="13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P743" s="13">
         <v>0</v>
@@ -40107,7 +40140,7 @@
         <v>0</v>
       </c>
       <c r="E746" s="12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F746" s="12">
         <v>0</v>
@@ -40116,31 +40149,31 @@
         <v>0</v>
       </c>
       <c r="H746" s="13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I746" s="13">
         <v>0</v>
       </c>
       <c r="J746" s="13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K746" s="12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L746" s="12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M746" s="12">
         <v>0</v>
       </c>
       <c r="N746" s="13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O746" s="13">
         <v>0</v>
       </c>
       <c r="P746" s="13">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="747" spans="1:16">
@@ -40256,7 +40289,7 @@
         <v>0</v>
       </c>
       <c r="F749" s="12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G749" s="13">
         <v>0</v>
@@ -40265,13 +40298,13 @@
         <v>0</v>
       </c>
       <c r="I749" s="13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J749" s="13">
         <v>0</v>
       </c>
       <c r="K749" s="12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L749" s="12">
         <v>0</v>
@@ -40280,7 +40313,7 @@
         <v>0</v>
       </c>
       <c r="N749" s="13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O749" s="13">
         <v>0</v>
@@ -40304,7 +40337,7 @@
         <v>0</v>
       </c>
       <c r="F750" s="12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G750" s="13">
         <v>0</v>
@@ -40313,22 +40346,22 @@
         <v>0</v>
       </c>
       <c r="I750" s="13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J750" s="13">
         <v>0</v>
       </c>
       <c r="K750" s="12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L750" s="12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M750" s="12">
         <v>0</v>
       </c>
       <c r="N750" s="13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O750" s="13">
         <v>0</v>
@@ -40390,7 +40423,7 @@
         <v>34</v>
       </c>
       <c r="B752" s="1" t="s">
-        <v>35</v>
+        <v>88</v>
       </c>
       <c r="C752" s="13">
         <v>1</v>
@@ -40402,7 +40435,7 @@
         <v>0</v>
       </c>
       <c r="F752" s="12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G752" s="13">
         <v>0</v>
@@ -40414,22 +40447,22 @@
         <v>0</v>
       </c>
       <c r="J752" s="13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K752" s="12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L752" s="12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M752" s="12">
         <v>0</v>
       </c>
       <c r="N752" s="13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O752" s="13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P752" s="13">
         <v>0</v>
@@ -40438,7 +40471,7 @@
     <row r="753" spans="1:16">
       <c r="A753" s="16"/>
       <c r="B753" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C753" s="13">
         <v>1</v>
@@ -40450,7 +40483,7 @@
         <v>0</v>
       </c>
       <c r="F753" s="12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G753" s="13">
         <v>0</v>
@@ -40462,19 +40495,19 @@
         <v>0</v>
       </c>
       <c r="J753" s="13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K753" s="12">
         <v>0</v>
       </c>
       <c r="L753" s="12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M753" s="12">
         <v>0</v>
       </c>
       <c r="N753" s="13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O753" s="13">
         <v>0</v>
@@ -40485,7 +40518,7 @@
     </row>
     <row r="754" spans="1:16">
       <c r="A754" s="17" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B754" s="3" t="s">
         <v>11</v>
@@ -40536,7 +40569,7 @@
     <row r="755" spans="1:16">
       <c r="A755" s="17"/>
       <c r="B755" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C755" s="13">
         <v>0</v>
@@ -40583,7 +40616,7 @@
     </row>
     <row r="757" spans="1:16">
       <c r="A757" s="18" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B757" s="18"/>
       <c r="C757" s="18"/>
@@ -40625,43 +40658,43 @@
       <c r="P758" s="20"/>
     </row>
     <row r="759" spans="1:16">
-      <c r="D759" s="32" t="s">
+      <c r="D759" s="37" t="s">
         <v>5</v>
       </c>
-      <c r="E759" s="32" t="s">
+      <c r="E759" s="37" t="s">
         <v>6</v>
       </c>
-      <c r="F759" s="32" t="s">
+      <c r="F759" s="37" t="s">
         <v>7</v>
       </c>
-      <c r="G759" s="33" t="s">
+      <c r="G759" s="38" t="s">
         <v>8</v>
       </c>
-      <c r="H759" s="33" t="s">
+      <c r="H759" s="38" t="s">
         <v>9</v>
       </c>
-      <c r="I759" s="33" t="s">
+      <c r="I759" s="38" t="s">
         <v>10</v>
       </c>
-      <c r="J759" s="33" t="s">
+      <c r="J759" s="38" t="s">
         <v>11</v>
       </c>
-      <c r="K759" s="32" t="s">
+      <c r="K759" s="37" t="s">
         <v>12</v>
       </c>
-      <c r="L759" s="32" t="s">
+      <c r="L759" s="37" t="s">
         <v>13</v>
       </c>
-      <c r="M759" s="32" t="s">
+      <c r="M759" s="37" t="s">
         <v>14</v>
       </c>
-      <c r="N759" s="33" t="s">
+      <c r="N759" s="38" t="s">
         <v>15</v>
       </c>
-      <c r="O759" s="33" t="s">
+      <c r="O759" s="38" t="s">
         <v>16</v>
       </c>
-      <c r="P759" s="33" t="s">
+      <c r="P759" s="38" t="s">
         <v>17</v>
       </c>
     </row>
@@ -41304,7 +41337,7 @@
         <v>34</v>
       </c>
       <c r="B773" s="1" t="s">
-        <v>35</v>
+        <v>88</v>
       </c>
       <c r="C773" s="13">
         <v>0</v>
@@ -41352,7 +41385,7 @@
     <row r="774" spans="1:16">
       <c r="A774" s="16"/>
       <c r="B774" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C774" s="13">
         <v>0</v>
@@ -41399,7 +41432,7 @@
     </row>
     <row r="775" spans="1:16">
       <c r="A775" s="17" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B775" s="3" t="s">
         <v>11</v>
@@ -41450,7 +41483,7 @@
     <row r="776" spans="1:16">
       <c r="A776" s="17"/>
       <c r="B776" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C776" s="13">
         <v>0</v>
@@ -41497,7 +41530,7 @@
     </row>
     <row r="778" spans="1:16">
       <c r="A778" s="18" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B778" s="18"/>
       <c r="C778" s="18"/>
@@ -41539,43 +41572,43 @@
       <c r="P779" s="20"/>
     </row>
     <row r="780" spans="1:16">
-      <c r="D780" s="32" t="s">
+      <c r="D780" s="37" t="s">
         <v>5</v>
       </c>
-      <c r="E780" s="32" t="s">
+      <c r="E780" s="37" t="s">
         <v>6</v>
       </c>
-      <c r="F780" s="32" t="s">
+      <c r="F780" s="37" t="s">
         <v>7</v>
       </c>
-      <c r="G780" s="33" t="s">
+      <c r="G780" s="38" t="s">
         <v>8</v>
       </c>
-      <c r="H780" s="33" t="s">
+      <c r="H780" s="38" t="s">
         <v>9</v>
       </c>
-      <c r="I780" s="33" t="s">
+      <c r="I780" s="38" t="s">
         <v>10</v>
       </c>
-      <c r="J780" s="33" t="s">
+      <c r="J780" s="38" t="s">
         <v>11</v>
       </c>
-      <c r="K780" s="32" t="s">
+      <c r="K780" s="37" t="s">
         <v>12</v>
       </c>
-      <c r="L780" s="32" t="s">
+      <c r="L780" s="37" t="s">
         <v>13</v>
       </c>
-      <c r="M780" s="32" t="s">
+      <c r="M780" s="37" t="s">
         <v>14</v>
       </c>
-      <c r="N780" s="33" t="s">
+      <c r="N780" s="38" t="s">
         <v>15</v>
       </c>
-      <c r="O780" s="33" t="s">
+      <c r="O780" s="38" t="s">
         <v>16</v>
       </c>
-      <c r="P780" s="33" t="s">
+      <c r="P780" s="38" t="s">
         <v>17</v>
       </c>
     </row>
@@ -42218,7 +42251,7 @@
         <v>34</v>
       </c>
       <c r="B794" s="1" t="s">
-        <v>35</v>
+        <v>88</v>
       </c>
       <c r="C794" s="13">
         <v>0</v>
@@ -42266,7 +42299,7 @@
     <row r="795" spans="1:16">
       <c r="A795" s="16"/>
       <c r="B795" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C795" s="13">
         <v>0</v>
@@ -42313,7 +42346,7 @@
     </row>
     <row r="796" spans="1:16">
       <c r="A796" s="17" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B796" s="3" t="s">
         <v>11</v>
@@ -42364,7 +42397,7 @@
     <row r="797" spans="1:16">
       <c r="A797" s="17"/>
       <c r="B797" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C797" s="13">
         <v>0</v>
@@ -42411,7 +42444,7 @@
     </row>
     <row r="799" spans="1:16">
       <c r="A799" s="18" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B799" s="18"/>
       <c r="C799" s="18"/>
@@ -42453,43 +42486,43 @@
       <c r="P800" s="20"/>
     </row>
     <row r="801" spans="1:16">
-      <c r="D801" s="32" t="s">
+      <c r="D801" s="37" t="s">
         <v>5</v>
       </c>
-      <c r="E801" s="32" t="s">
+      <c r="E801" s="37" t="s">
         <v>6</v>
       </c>
-      <c r="F801" s="32" t="s">
+      <c r="F801" s="37" t="s">
         <v>7</v>
       </c>
-      <c r="G801" s="33" t="s">
+      <c r="G801" s="38" t="s">
         <v>8</v>
       </c>
-      <c r="H801" s="33" t="s">
+      <c r="H801" s="38" t="s">
         <v>9</v>
       </c>
-      <c r="I801" s="33" t="s">
+      <c r="I801" s="38" t="s">
         <v>10</v>
       </c>
-      <c r="J801" s="33" t="s">
+      <c r="J801" s="38" t="s">
         <v>11</v>
       </c>
-      <c r="K801" s="32" t="s">
+      <c r="K801" s="37" t="s">
         <v>12</v>
       </c>
-      <c r="L801" s="32" t="s">
+      <c r="L801" s="37" t="s">
         <v>13</v>
       </c>
-      <c r="M801" s="32" t="s">
+      <c r="M801" s="37" t="s">
         <v>14</v>
       </c>
-      <c r="N801" s="33" t="s">
+      <c r="N801" s="38" t="s">
         <v>15</v>
       </c>
-      <c r="O801" s="33" t="s">
+      <c r="O801" s="38" t="s">
         <v>16</v>
       </c>
-      <c r="P801" s="33" t="s">
+      <c r="P801" s="38" t="s">
         <v>17</v>
       </c>
     </row>
@@ -43132,7 +43165,7 @@
         <v>34</v>
       </c>
       <c r="B815" s="1" t="s">
-        <v>35</v>
+        <v>88</v>
       </c>
       <c r="C815" s="13">
         <v>0</v>
@@ -43180,7 +43213,7 @@
     <row r="816" spans="1:16">
       <c r="A816" s="16"/>
       <c r="B816" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C816" s="13">
         <v>1</v>
@@ -43227,7 +43260,7 @@
     </row>
     <row r="817" spans="1:16">
       <c r="A817" s="17" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B817" s="3" t="s">
         <v>11</v>
@@ -43278,7 +43311,7 @@
     <row r="818" spans="1:16">
       <c r="A818" s="17"/>
       <c r="B818" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C818" s="13">
         <v>1</v>
@@ -43325,7 +43358,7 @@
     </row>
     <row r="820" spans="1:16">
       <c r="A820" s="18" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B820" s="18"/>
       <c r="C820" s="18"/>
@@ -43367,43 +43400,43 @@
       <c r="P821" s="20"/>
     </row>
     <row r="822" spans="1:16">
-      <c r="D822" s="32" t="s">
+      <c r="D822" s="37" t="s">
         <v>5</v>
       </c>
-      <c r="E822" s="32" t="s">
+      <c r="E822" s="37" t="s">
         <v>6</v>
       </c>
-      <c r="F822" s="32" t="s">
+      <c r="F822" s="37" t="s">
         <v>7</v>
       </c>
-      <c r="G822" s="33" t="s">
+      <c r="G822" s="38" t="s">
         <v>8</v>
       </c>
-      <c r="H822" s="33" t="s">
+      <c r="H822" s="38" t="s">
         <v>9</v>
       </c>
-      <c r="I822" s="33" t="s">
+      <c r="I822" s="38" t="s">
         <v>10</v>
       </c>
-      <c r="J822" s="33" t="s">
+      <c r="J822" s="38" t="s">
         <v>11</v>
       </c>
-      <c r="K822" s="32" t="s">
+      <c r="K822" s="37" t="s">
         <v>12</v>
       </c>
-      <c r="L822" s="32" t="s">
+      <c r="L822" s="37" t="s">
         <v>13</v>
       </c>
-      <c r="M822" s="32" t="s">
+      <c r="M822" s="37" t="s">
         <v>14</v>
       </c>
-      <c r="N822" s="33" t="s">
+      <c r="N822" s="38" t="s">
         <v>15</v>
       </c>
-      <c r="O822" s="33" t="s">
+      <c r="O822" s="38" t="s">
         <v>16</v>
       </c>
-      <c r="P822" s="33" t="s">
+      <c r="P822" s="38" t="s">
         <v>17</v>
       </c>
     </row>
@@ -44046,7 +44079,7 @@
         <v>34</v>
       </c>
       <c r="B836" s="1" t="s">
-        <v>35</v>
+        <v>88</v>
       </c>
       <c r="C836" s="4">
         <v>0</v>
@@ -44094,7 +44127,7 @@
     <row r="837" spans="1:16">
       <c r="A837" s="16"/>
       <c r="B837" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C837" s="4">
         <v>0</v>
@@ -44141,7 +44174,7 @@
     </row>
     <row r="838" spans="1:16">
       <c r="A838" s="17" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B838" s="3" t="s">
         <v>11</v>
@@ -44192,7 +44225,7 @@
     <row r="839" spans="1:16">
       <c r="A839" s="17"/>
       <c r="B839" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C839" s="13">
         <v>0</v>
@@ -44239,7 +44272,7 @@
     </row>
     <row r="841" spans="1:16">
       <c r="A841" s="18" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B841" s="18"/>
       <c r="C841" s="18"/>
@@ -44281,43 +44314,43 @@
       <c r="P842" s="20"/>
     </row>
     <row r="843" spans="1:16">
-      <c r="D843" s="32" t="s">
+      <c r="D843" s="37" t="s">
         <v>5</v>
       </c>
-      <c r="E843" s="32" t="s">
+      <c r="E843" s="37" t="s">
         <v>6</v>
       </c>
-      <c r="F843" s="32" t="s">
+      <c r="F843" s="37" t="s">
         <v>7</v>
       </c>
-      <c r="G843" s="33" t="s">
+      <c r="G843" s="38" t="s">
         <v>8</v>
       </c>
-      <c r="H843" s="33" t="s">
+      <c r="H843" s="38" t="s">
         <v>9</v>
       </c>
-      <c r="I843" s="33" t="s">
+      <c r="I843" s="38" t="s">
         <v>10</v>
       </c>
-      <c r="J843" s="33" t="s">
+      <c r="J843" s="38" t="s">
         <v>11</v>
       </c>
-      <c r="K843" s="32" t="s">
+      <c r="K843" s="37" t="s">
         <v>12</v>
       </c>
-      <c r="L843" s="32" t="s">
+      <c r="L843" s="37" t="s">
         <v>13</v>
       </c>
-      <c r="M843" s="32" t="s">
+      <c r="M843" s="37" t="s">
         <v>14</v>
       </c>
-      <c r="N843" s="33" t="s">
+      <c r="N843" s="38" t="s">
         <v>15</v>
       </c>
-      <c r="O843" s="33" t="s">
+      <c r="O843" s="38" t="s">
         <v>16</v>
       </c>
-      <c r="P843" s="33" t="s">
+      <c r="P843" s="38" t="s">
         <v>17</v>
       </c>
     </row>
@@ -44960,7 +44993,7 @@
         <v>34</v>
       </c>
       <c r="B857" s="1" t="s">
-        <v>35</v>
+        <v>88</v>
       </c>
       <c r="C857" s="4">
         <v>0</v>
@@ -45008,7 +45041,7 @@
     <row r="858" spans="1:16">
       <c r="A858" s="16"/>
       <c r="B858" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C858" s="4">
         <v>0</v>
@@ -45055,7 +45088,7 @@
     </row>
     <row r="859" spans="1:16">
       <c r="A859" s="17" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B859" s="3" t="s">
         <v>11</v>
@@ -45106,7 +45139,7 @@
     <row r="860" spans="1:16">
       <c r="A860" s="17"/>
       <c r="B860" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C860" s="13">
         <v>0</v>
@@ -45153,7 +45186,7 @@
     </row>
     <row r="862" spans="1:16">
       <c r="A862" s="18" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B862" s="18"/>
       <c r="C862" s="18"/>
@@ -45195,43 +45228,43 @@
       <c r="P863" s="20"/>
     </row>
     <row r="864" spans="1:16">
-      <c r="D864" s="32" t="s">
+      <c r="D864" s="37" t="s">
         <v>5</v>
       </c>
-      <c r="E864" s="32" t="s">
+      <c r="E864" s="37" t="s">
         <v>6</v>
       </c>
-      <c r="F864" s="32" t="s">
+      <c r="F864" s="37" t="s">
         <v>7</v>
       </c>
-      <c r="G864" s="33" t="s">
+      <c r="G864" s="38" t="s">
         <v>8</v>
       </c>
-      <c r="H864" s="33" t="s">
+      <c r="H864" s="38" t="s">
         <v>9</v>
       </c>
-      <c r="I864" s="33" t="s">
+      <c r="I864" s="38" t="s">
         <v>10</v>
       </c>
-      <c r="J864" s="33" t="s">
+      <c r="J864" s="38" t="s">
         <v>11</v>
       </c>
-      <c r="K864" s="32" t="s">
+      <c r="K864" s="37" t="s">
         <v>12</v>
       </c>
-      <c r="L864" s="32" t="s">
+      <c r="L864" s="37" t="s">
         <v>13</v>
       </c>
-      <c r="M864" s="32" t="s">
+      <c r="M864" s="37" t="s">
         <v>14</v>
       </c>
-      <c r="N864" s="33" t="s">
+      <c r="N864" s="38" t="s">
         <v>15</v>
       </c>
-      <c r="O864" s="33" t="s">
+      <c r="O864" s="38" t="s">
         <v>16</v>
       </c>
-      <c r="P864" s="33" t="s">
+      <c r="P864" s="38" t="s">
         <v>17</v>
       </c>
     </row>
@@ -45874,7 +45907,7 @@
         <v>34</v>
       </c>
       <c r="B878" s="1" t="s">
-        <v>35</v>
+        <v>88</v>
       </c>
       <c r="C878" s="13">
         <v>1</v>
@@ -45922,7 +45955,7 @@
     <row r="879" spans="1:16">
       <c r="A879" s="16"/>
       <c r="B879" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C879" s="13">
         <v>1</v>
@@ -45969,7 +46002,7 @@
     </row>
     <row r="880" spans="1:16">
       <c r="A880" s="17" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B880" s="3" t="s">
         <v>11</v>
@@ -46020,7 +46053,7 @@
     <row r="881" spans="1:16">
       <c r="A881" s="17"/>
       <c r="B881" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C881" s="13">
         <v>0</v>
@@ -46067,7 +46100,7 @@
     </row>
     <row r="883" spans="1:16">
       <c r="A883" s="18" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B883" s="18"/>
       <c r="C883" s="18"/>
@@ -46109,43 +46142,43 @@
       <c r="P884" s="20"/>
     </row>
     <row r="885" spans="1:16">
-      <c r="D885" s="32" t="s">
+      <c r="D885" s="37" t="s">
         <v>5</v>
       </c>
-      <c r="E885" s="32" t="s">
+      <c r="E885" s="37" t="s">
         <v>6</v>
       </c>
-      <c r="F885" s="32" t="s">
+      <c r="F885" s="37" t="s">
         <v>7</v>
       </c>
-      <c r="G885" s="33" t="s">
+      <c r="G885" s="38" t="s">
         <v>8</v>
       </c>
-      <c r="H885" s="33" t="s">
+      <c r="H885" s="38" t="s">
         <v>9</v>
       </c>
-      <c r="I885" s="33" t="s">
+      <c r="I885" s="38" t="s">
         <v>10</v>
       </c>
-      <c r="J885" s="33" t="s">
+      <c r="J885" s="38" t="s">
         <v>11</v>
       </c>
-      <c r="K885" s="32" t="s">
+      <c r="K885" s="37" t="s">
         <v>12</v>
       </c>
-      <c r="L885" s="32" t="s">
+      <c r="L885" s="37" t="s">
         <v>13</v>
       </c>
-      <c r="M885" s="32" t="s">
+      <c r="M885" s="37" t="s">
         <v>14</v>
       </c>
-      <c r="N885" s="33" t="s">
+      <c r="N885" s="38" t="s">
         <v>15</v>
       </c>
-      <c r="O885" s="33" t="s">
+      <c r="O885" s="38" t="s">
         <v>16</v>
       </c>
-      <c r="P885" s="33" t="s">
+      <c r="P885" s="38" t="s">
         <v>17</v>
       </c>
     </row>
@@ -46788,7 +46821,7 @@
         <v>34</v>
       </c>
       <c r="B899" s="1" t="s">
-        <v>35</v>
+        <v>88</v>
       </c>
       <c r="C899" s="13">
         <v>1</v>
@@ -46836,7 +46869,7 @@
     <row r="900" spans="1:16">
       <c r="A900" s="16"/>
       <c r="B900" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C900" s="13">
         <v>1</v>
@@ -46883,7 +46916,7 @@
     </row>
     <row r="901" spans="1:16">
       <c r="A901" s="17" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B901" s="3" t="s">
         <v>11</v>
@@ -46934,7 +46967,7 @@
     <row r="902" spans="1:16">
       <c r="A902" s="17"/>
       <c r="B902" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C902" s="13">
         <v>0</v>
@@ -46981,7 +47014,7 @@
     </row>
     <row r="904" spans="1:16">
       <c r="A904" s="18" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B904" s="18"/>
       <c r="C904" s="18"/>
@@ -47023,43 +47056,43 @@
       <c r="P905" s="20"/>
     </row>
     <row r="906" spans="1:16">
-      <c r="D906" s="32" t="s">
+      <c r="D906" s="37" t="s">
         <v>5</v>
       </c>
-      <c r="E906" s="32" t="s">
+      <c r="E906" s="37" t="s">
         <v>6</v>
       </c>
-      <c r="F906" s="32" t="s">
+      <c r="F906" s="37" t="s">
         <v>7</v>
       </c>
-      <c r="G906" s="33" t="s">
+      <c r="G906" s="38" t="s">
         <v>8</v>
       </c>
-      <c r="H906" s="33" t="s">
+      <c r="H906" s="38" t="s">
         <v>9</v>
       </c>
-      <c r="I906" s="33" t="s">
+      <c r="I906" s="38" t="s">
         <v>10</v>
       </c>
-      <c r="J906" s="33" t="s">
+      <c r="J906" s="38" t="s">
         <v>11</v>
       </c>
-      <c r="K906" s="32" t="s">
+      <c r="K906" s="37" t="s">
         <v>12</v>
       </c>
-      <c r="L906" s="32" t="s">
+      <c r="L906" s="37" t="s">
         <v>13</v>
       </c>
-      <c r="M906" s="32" t="s">
+      <c r="M906" s="37" t="s">
         <v>14</v>
       </c>
-      <c r="N906" s="33" t="s">
+      <c r="N906" s="38" t="s">
         <v>15</v>
       </c>
-      <c r="O906" s="33" t="s">
+      <c r="O906" s="38" t="s">
         <v>16</v>
       </c>
-      <c r="P906" s="33" t="s">
+      <c r="P906" s="38" t="s">
         <v>17</v>
       </c>
     </row>
@@ -47702,7 +47735,7 @@
         <v>34</v>
       </c>
       <c r="B920" s="1" t="s">
-        <v>35</v>
+        <v>88</v>
       </c>
       <c r="C920" s="13">
         <v>0</v>
@@ -47750,7 +47783,7 @@
     <row r="921" spans="1:16">
       <c r="A921" s="16"/>
       <c r="B921" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C921" s="13">
         <v>0</v>
@@ -47797,7 +47830,7 @@
     </row>
     <row r="922" spans="1:16">
       <c r="A922" s="17" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B922" s="3" t="s">
         <v>11</v>
@@ -47848,7 +47881,7 @@
     <row r="923" spans="1:16">
       <c r="A923" s="17"/>
       <c r="B923" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C923" s="13">
         <v>0</v>
@@ -47895,7 +47928,7 @@
     </row>
     <row r="925" spans="1:16">
       <c r="A925" s="18" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B925" s="18"/>
       <c r="C925" s="18"/>
@@ -47937,43 +47970,43 @@
       <c r="P926" s="20"/>
     </row>
     <row r="927" spans="1:16">
-      <c r="D927" s="32" t="s">
+      <c r="D927" s="37" t="s">
         <v>5</v>
       </c>
-      <c r="E927" s="32" t="s">
+      <c r="E927" s="37" t="s">
         <v>6</v>
       </c>
-      <c r="F927" s="32" t="s">
+      <c r="F927" s="37" t="s">
         <v>7</v>
       </c>
-      <c r="G927" s="33" t="s">
+      <c r="G927" s="38" t="s">
         <v>8</v>
       </c>
-      <c r="H927" s="33" t="s">
+      <c r="H927" s="38" t="s">
         <v>9</v>
       </c>
-      <c r="I927" s="33" t="s">
+      <c r="I927" s="38" t="s">
         <v>10</v>
       </c>
-      <c r="J927" s="33" t="s">
+      <c r="J927" s="38" t="s">
         <v>11</v>
       </c>
-      <c r="K927" s="32" t="s">
+      <c r="K927" s="37" t="s">
         <v>12</v>
       </c>
-      <c r="L927" s="32" t="s">
+      <c r="L927" s="37" t="s">
         <v>13</v>
       </c>
-      <c r="M927" s="32" t="s">
+      <c r="M927" s="37" t="s">
         <v>14</v>
       </c>
-      <c r="N927" s="33" t="s">
+      <c r="N927" s="38" t="s">
         <v>15</v>
       </c>
-      <c r="O927" s="33" t="s">
+      <c r="O927" s="38" t="s">
         <v>16</v>
       </c>
-      <c r="P927" s="33" t="s">
+      <c r="P927" s="38" t="s">
         <v>17</v>
       </c>
     </row>
@@ -48616,7 +48649,7 @@
         <v>34</v>
       </c>
       <c r="B941" s="1" t="s">
-        <v>35</v>
+        <v>88</v>
       </c>
       <c r="C941" s="13">
         <v>0</v>
@@ -48664,7 +48697,7 @@
     <row r="942" spans="1:16">
       <c r="A942" s="16"/>
       <c r="B942" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C942" s="13">
         <v>0</v>
@@ -48711,7 +48744,7 @@
     </row>
     <row r="943" spans="1:16">
       <c r="A943" s="17" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B943" s="3" t="s">
         <v>11</v>
@@ -48762,7 +48795,7 @@
     <row r="944" spans="1:16">
       <c r="A944" s="17"/>
       <c r="B944" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C944" s="13">
         <v>0</v>
@@ -48809,7 +48842,7 @@
     </row>
     <row r="946" spans="1:16">
       <c r="A946" s="18" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B946" s="18"/>
       <c r="C946" s="18"/>
@@ -48851,43 +48884,43 @@
       <c r="P947" s="20"/>
     </row>
     <row r="948" spans="1:16">
-      <c r="D948" s="32" t="s">
+      <c r="D948" s="37" t="s">
         <v>5</v>
       </c>
-      <c r="E948" s="32" t="s">
+      <c r="E948" s="37" t="s">
         <v>6</v>
       </c>
-      <c r="F948" s="32" t="s">
+      <c r="F948" s="37" t="s">
         <v>7</v>
       </c>
-      <c r="G948" s="33" t="s">
+      <c r="G948" s="38" t="s">
         <v>8</v>
       </c>
-      <c r="H948" s="33" t="s">
+      <c r="H948" s="38" t="s">
         <v>9</v>
       </c>
-      <c r="I948" s="33" t="s">
+      <c r="I948" s="38" t="s">
         <v>10</v>
       </c>
-      <c r="J948" s="33" t="s">
+      <c r="J948" s="38" t="s">
         <v>11</v>
       </c>
-      <c r="K948" s="32" t="s">
+      <c r="K948" s="37" t="s">
         <v>12</v>
       </c>
-      <c r="L948" s="32" t="s">
+      <c r="L948" s="37" t="s">
         <v>13</v>
       </c>
-      <c r="M948" s="32" t="s">
+      <c r="M948" s="37" t="s">
         <v>14</v>
       </c>
-      <c r="N948" s="33" t="s">
+      <c r="N948" s="38" t="s">
         <v>15</v>
       </c>
-      <c r="O948" s="33" t="s">
+      <c r="O948" s="38" t="s">
         <v>16</v>
       </c>
-      <c r="P948" s="33" t="s">
+      <c r="P948" s="38" t="s">
         <v>17</v>
       </c>
     </row>
@@ -49530,7 +49563,7 @@
         <v>34</v>
       </c>
       <c r="B962" s="1" t="s">
-        <v>35</v>
+        <v>88</v>
       </c>
       <c r="C962" s="13">
         <v>0</v>
@@ -49578,7 +49611,7 @@
     <row r="963" spans="1:16">
       <c r="A963" s="16"/>
       <c r="B963" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C963" s="13">
         <v>0</v>
@@ -49625,7 +49658,7 @@
     </row>
     <row r="964" spans="1:16">
       <c r="A964" s="17" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B964" s="3" t="s">
         <v>11</v>
@@ -49676,7 +49709,7 @@
     <row r="965" spans="1:16">
       <c r="A965" s="17"/>
       <c r="B965" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C965" s="13">
         <v>1</v>
@@ -49723,7 +49756,7 @@
     </row>
     <row r="967" spans="1:16">
       <c r="A967" s="18" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B967" s="18"/>
       <c r="C967" s="18"/>
@@ -49765,43 +49798,43 @@
       <c r="P968" s="20"/>
     </row>
     <row r="969" spans="1:16">
-      <c r="D969" s="32" t="s">
+      <c r="D969" s="37" t="s">
         <v>5</v>
       </c>
-      <c r="E969" s="32" t="s">
+      <c r="E969" s="37" t="s">
         <v>6</v>
       </c>
-      <c r="F969" s="32" t="s">
+      <c r="F969" s="37" t="s">
         <v>7</v>
       </c>
-      <c r="G969" s="33" t="s">
+      <c r="G969" s="38" t="s">
         <v>8</v>
       </c>
-      <c r="H969" s="33" t="s">
+      <c r="H969" s="38" t="s">
         <v>9</v>
       </c>
-      <c r="I969" s="33" t="s">
+      <c r="I969" s="38" t="s">
         <v>10</v>
       </c>
-      <c r="J969" s="33" t="s">
+      <c r="J969" s="38" t="s">
         <v>11</v>
       </c>
-      <c r="K969" s="32" t="s">
+      <c r="K969" s="37" t="s">
         <v>12</v>
       </c>
-      <c r="L969" s="32" t="s">
+      <c r="L969" s="37" t="s">
         <v>13</v>
       </c>
-      <c r="M969" s="32" t="s">
+      <c r="M969" s="37" t="s">
         <v>14</v>
       </c>
-      <c r="N969" s="33" t="s">
+      <c r="N969" s="38" t="s">
         <v>15</v>
       </c>
-      <c r="O969" s="33" t="s">
+      <c r="O969" s="38" t="s">
         <v>16</v>
       </c>
-      <c r="P969" s="33" t="s">
+      <c r="P969" s="38" t="s">
         <v>17</v>
       </c>
     </row>
@@ -50444,7 +50477,7 @@
         <v>34</v>
       </c>
       <c r="B983" s="1" t="s">
-        <v>35</v>
+        <v>88</v>
       </c>
       <c r="C983" s="13">
         <v>1</v>
@@ -50492,7 +50525,7 @@
     <row r="984" spans="1:16">
       <c r="A984" s="16"/>
       <c r="B984" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C984" s="13">
         <v>0</v>
@@ -50539,7 +50572,7 @@
     </row>
     <row r="985" spans="1:16">
       <c r="A985" s="17" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B985" s="3" t="s">
         <v>11</v>
@@ -50590,7 +50623,7 @@
     <row r="986" spans="1:16">
       <c r="A986" s="17"/>
       <c r="B986" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C986" s="13">
         <v>0</v>
@@ -50637,7 +50670,7 @@
     </row>
     <row r="988" spans="1:16">
       <c r="A988" s="18" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B988" s="18"/>
       <c r="C988" s="18"/>
@@ -50679,43 +50712,43 @@
       <c r="P989" s="20"/>
     </row>
     <row r="990" spans="1:16">
-      <c r="D990" s="32" t="s">
+      <c r="D990" s="37" t="s">
         <v>5</v>
       </c>
-      <c r="E990" s="32" t="s">
+      <c r="E990" s="37" t="s">
         <v>6</v>
       </c>
-      <c r="F990" s="32" t="s">
+      <c r="F990" s="37" t="s">
         <v>7</v>
       </c>
-      <c r="G990" s="33" t="s">
+      <c r="G990" s="38" t="s">
         <v>8</v>
       </c>
-      <c r="H990" s="33" t="s">
+      <c r="H990" s="38" t="s">
         <v>9</v>
       </c>
-      <c r="I990" s="33" t="s">
+      <c r="I990" s="38" t="s">
         <v>10</v>
       </c>
-      <c r="J990" s="33" t="s">
+      <c r="J990" s="38" t="s">
         <v>11</v>
       </c>
-      <c r="K990" s="32" t="s">
+      <c r="K990" s="37" t="s">
         <v>12</v>
       </c>
-      <c r="L990" s="32" t="s">
+      <c r="L990" s="37" t="s">
         <v>13</v>
       </c>
-      <c r="M990" s="32" t="s">
+      <c r="M990" s="37" t="s">
         <v>14</v>
       </c>
-      <c r="N990" s="33" t="s">
+      <c r="N990" s="38" t="s">
         <v>15</v>
       </c>
-      <c r="O990" s="33" t="s">
+      <c r="O990" s="38" t="s">
         <v>16</v>
       </c>
-      <c r="P990" s="33" t="s">
+      <c r="P990" s="38" t="s">
         <v>17</v>
       </c>
     </row>
@@ -51355,7 +51388,7 @@
         <v>34</v>
       </c>
       <c r="B1004" s="1" t="s">
-        <v>35</v>
+        <v>88</v>
       </c>
       <c r="C1004" s="13">
         <v>1</v>
@@ -51403,7 +51436,7 @@
     <row r="1005" spans="1:16">
       <c r="A1005" s="16"/>
       <c r="B1005" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C1005" s="13">
         <v>0</v>
@@ -51450,7 +51483,7 @@
     </row>
     <row r="1006" spans="1:16">
       <c r="A1006" s="17" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B1006" s="3" t="s">
         <v>11</v>
@@ -51501,7 +51534,7 @@
     <row r="1007" spans="1:16">
       <c r="A1007" s="17"/>
       <c r="B1007" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C1007" s="13">
         <v>0</v>
@@ -51547,24 +51580,24 @@
       </c>
     </row>
     <row r="1009" spans="1:16">
-      <c r="A1009" s="25" t="s">
-        <v>86</v>
-      </c>
-      <c r="B1009" s="25"/>
-      <c r="C1009" s="25"/>
-      <c r="D1009" s="25"/>
-      <c r="E1009" s="25"/>
-      <c r="F1009" s="25"/>
-      <c r="G1009" s="25"/>
-      <c r="H1009" s="25"/>
-      <c r="I1009" s="25"/>
-      <c r="J1009" s="25"/>
-      <c r="K1009" s="25"/>
-      <c r="L1009" s="25"/>
-      <c r="M1009" s="25"/>
-      <c r="N1009" s="25"/>
-      <c r="O1009" s="25"/>
-      <c r="P1009" s="25"/>
+      <c r="A1009" s="18" t="s">
+        <v>85</v>
+      </c>
+      <c r="B1009" s="18"/>
+      <c r="C1009" s="18"/>
+      <c r="D1009" s="18"/>
+      <c r="E1009" s="18"/>
+      <c r="F1009" s="18"/>
+      <c r="G1009" s="18"/>
+      <c r="H1009" s="18"/>
+      <c r="I1009" s="18"/>
+      <c r="J1009" s="18"/>
+      <c r="K1009" s="18"/>
+      <c r="L1009" s="18"/>
+      <c r="M1009" s="18"/>
+      <c r="N1009" s="18"/>
+      <c r="O1009" s="18"/>
+      <c r="P1009" s="18"/>
     </row>
     <row r="1010" spans="1:16">
       <c r="D1010" s="19" t="s">
@@ -51590,43 +51623,43 @@
       <c r="P1010" s="20"/>
     </row>
     <row r="1011" spans="1:16">
-      <c r="D1011" s="32" t="s">
+      <c r="D1011" s="37" t="s">
         <v>5</v>
       </c>
-      <c r="E1011" s="32" t="s">
+      <c r="E1011" s="37" t="s">
         <v>6</v>
       </c>
-      <c r="F1011" s="32" t="s">
+      <c r="F1011" s="37" t="s">
         <v>7</v>
       </c>
-      <c r="G1011" s="33" t="s">
+      <c r="G1011" s="38" t="s">
         <v>8</v>
       </c>
-      <c r="H1011" s="33" t="s">
+      <c r="H1011" s="38" t="s">
         <v>9</v>
       </c>
-      <c r="I1011" s="33" t="s">
+      <c r="I1011" s="38" t="s">
         <v>10</v>
       </c>
-      <c r="J1011" s="33" t="s">
+      <c r="J1011" s="38" t="s">
         <v>11</v>
       </c>
-      <c r="K1011" s="32" t="s">
+      <c r="K1011" s="37" t="s">
         <v>12</v>
       </c>
-      <c r="L1011" s="32" t="s">
+      <c r="L1011" s="37" t="s">
         <v>13</v>
       </c>
-      <c r="M1011" s="32" t="s">
+      <c r="M1011" s="37" t="s">
         <v>14</v>
       </c>
-      <c r="N1011" s="33" t="s">
+      <c r="N1011" s="38" t="s">
         <v>15</v>
       </c>
-      <c r="O1011" s="33" t="s">
+      <c r="O1011" s="38" t="s">
         <v>16</v>
       </c>
-      <c r="P1011" s="33" t="s">
+      <c r="P1011" s="38" t="s">
         <v>17</v>
       </c>
     </row>
@@ -51641,7 +51674,7 @@
         <v>1</v>
       </c>
       <c r="D1012" s="12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E1012" s="12">
         <v>0</v>
@@ -51653,7 +51686,7 @@
         <v>0</v>
       </c>
       <c r="H1012" s="13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I1012" s="13">
         <v>0</v>
@@ -51662,7 +51695,7 @@
         <v>0</v>
       </c>
       <c r="K1012" s="12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L1012" s="12">
         <v>0</v>
@@ -51671,7 +51704,7 @@
         <v>0</v>
       </c>
       <c r="N1012" s="13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O1012" s="13">
         <v>0</v>
@@ -51739,7 +51772,7 @@
         <v>1</v>
       </c>
       <c r="D1014" s="12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E1014" s="12">
         <v>0</v>
@@ -51754,13 +51787,13 @@
         <v>0</v>
       </c>
       <c r="I1014" s="13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J1014" s="13">
         <v>0</v>
       </c>
       <c r="K1014" s="12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L1014" s="12">
         <v>0</v>
@@ -51769,7 +51802,7 @@
         <v>0</v>
       </c>
       <c r="N1014" s="13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O1014" s="13">
         <v>0</v>
@@ -51885,7 +51918,7 @@
         <v>1</v>
       </c>
       <c r="D1017" s="12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E1017" s="12">
         <v>0</v>
@@ -51897,7 +51930,7 @@
         <v>0</v>
       </c>
       <c r="H1017" s="13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I1017" s="13">
         <v>0</v>
@@ -51906,7 +51939,7 @@
         <v>0</v>
       </c>
       <c r="K1017" s="12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L1017" s="12">
         <v>0</v>
@@ -51921,7 +51954,7 @@
         <v>0</v>
       </c>
       <c r="P1017" s="13">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1018" spans="1:16">
@@ -51933,7 +51966,7 @@
         <v>1</v>
       </c>
       <c r="D1018" s="12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E1018" s="12">
         <v>0</v>
@@ -51945,7 +51978,7 @@
         <v>0</v>
       </c>
       <c r="H1018" s="13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I1018" s="13">
         <v>0</v>
@@ -51954,7 +51987,7 @@
         <v>0</v>
       </c>
       <c r="K1018" s="12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L1018" s="12">
         <v>0</v>
@@ -51963,7 +51996,7 @@
         <v>0</v>
       </c>
       <c r="N1018" s="13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O1018" s="13">
         <v>0</v>
@@ -52126,10 +52159,10 @@
         <v>31</v>
       </c>
       <c r="C1022" s="13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D1022" s="12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E1022" s="12">
         <v>0</v>
@@ -52138,7 +52171,7 @@
         <v>0</v>
       </c>
       <c r="G1022" s="13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H1022" s="13">
         <v>0</v>
@@ -52150,7 +52183,7 @@
         <v>0</v>
       </c>
       <c r="K1022" s="12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L1022" s="12">
         <v>0</v>
@@ -52159,7 +52192,7 @@
         <v>0</v>
       </c>
       <c r="N1022" s="13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O1022" s="13">
         <v>0</v>
@@ -52269,13 +52302,13 @@
         <v>34</v>
       </c>
       <c r="B1025" s="1" t="s">
-        <v>35</v>
+        <v>88</v>
       </c>
       <c r="C1025" s="13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D1025" s="12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E1025" s="12">
         <v>0</v>
@@ -52290,22 +52323,22 @@
         <v>0</v>
       </c>
       <c r="I1025" s="13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J1025" s="13">
         <v>0</v>
       </c>
       <c r="K1025" s="12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L1025" s="12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M1025" s="12">
         <v>0</v>
       </c>
       <c r="N1025" s="13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O1025" s="13">
         <v>0</v>
@@ -52317,7 +52350,7 @@
     <row r="1026" spans="1:16">
       <c r="A1026" s="16"/>
       <c r="B1026" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C1026" s="13">
         <v>0</v>
@@ -52364,7 +52397,7 @@
     </row>
     <row r="1027" spans="1:16">
       <c r="A1027" s="17" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B1027" s="3" t="s">
         <v>11</v>
@@ -52415,7 +52448,7 @@
     <row r="1028" spans="1:16">
       <c r="A1028" s="17"/>
       <c r="B1028" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C1028" s="13">
         <v>0</v>
@@ -52462,7 +52495,7 @@
     </row>
     <row r="1030" spans="1:16">
       <c r="A1030" s="18" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B1030" s="18"/>
       <c r="C1030" s="18"/>
@@ -52504,43 +52537,43 @@
       <c r="P1031" s="20"/>
     </row>
     <row r="1032" spans="1:16">
-      <c r="D1032" s="32" t="s">
+      <c r="D1032" s="37" t="s">
         <v>5</v>
       </c>
-      <c r="E1032" s="32" t="s">
+      <c r="E1032" s="37" t="s">
         <v>6</v>
       </c>
-      <c r="F1032" s="32" t="s">
+      <c r="F1032" s="37" t="s">
         <v>7</v>
       </c>
-      <c r="G1032" s="33" t="s">
+      <c r="G1032" s="38" t="s">
         <v>8</v>
       </c>
-      <c r="H1032" s="33" t="s">
+      <c r="H1032" s="38" t="s">
         <v>9</v>
       </c>
-      <c r="I1032" s="33" t="s">
+      <c r="I1032" s="38" t="s">
         <v>10</v>
       </c>
-      <c r="J1032" s="33" t="s">
+      <c r="J1032" s="38" t="s">
         <v>11</v>
       </c>
-      <c r="K1032" s="32" t="s">
+      <c r="K1032" s="37" t="s">
         <v>12</v>
       </c>
-      <c r="L1032" s="32" t="s">
+      <c r="L1032" s="37" t="s">
         <v>13</v>
       </c>
-      <c r="M1032" s="32" t="s">
+      <c r="M1032" s="37" t="s">
         <v>14</v>
       </c>
-      <c r="N1032" s="33" t="s">
+      <c r="N1032" s="38" t="s">
         <v>15</v>
       </c>
-      <c r="O1032" s="33" t="s">
+      <c r="O1032" s="38" t="s">
         <v>16</v>
       </c>
-      <c r="P1032" s="33" t="s">
+      <c r="P1032" s="38" t="s">
         <v>17</v>
       </c>
     </row>
@@ -53183,7 +53216,7 @@
         <v>34</v>
       </c>
       <c r="B1046" s="1" t="s">
-        <v>35</v>
+        <v>88</v>
       </c>
       <c r="C1046" s="13">
         <v>1</v>
@@ -53231,7 +53264,7 @@
     <row r="1047" spans="1:16">
       <c r="A1047" s="16"/>
       <c r="B1047" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C1047" s="4">
         <v>0</v>
@@ -53278,7 +53311,7 @@
     </row>
     <row r="1048" spans="1:16">
       <c r="A1048" s="17" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B1048" s="3" t="s">
         <v>11</v>
@@ -53329,7 +53362,7 @@
     <row r="1049" spans="1:16">
       <c r="A1049" s="17"/>
       <c r="B1049" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C1049" s="13">
         <v>1</v>
@@ -53376,7 +53409,7 @@
     </row>
     <row r="1051" spans="1:16">
       <c r="A1051" s="18" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B1051" s="18"/>
       <c r="C1051" s="18"/>
@@ -53418,43 +53451,43 @@
       <c r="P1052" s="20"/>
     </row>
     <row r="1053" spans="1:16">
-      <c r="D1053" s="32" t="s">
+      <c r="D1053" s="37" t="s">
         <v>5</v>
       </c>
-      <c r="E1053" s="32" t="s">
+      <c r="E1053" s="37" t="s">
         <v>6</v>
       </c>
-      <c r="F1053" s="32" t="s">
+      <c r="F1053" s="37" t="s">
         <v>7</v>
       </c>
-      <c r="G1053" s="33" t="s">
+      <c r="G1053" s="38" t="s">
         <v>8</v>
       </c>
-      <c r="H1053" s="33" t="s">
+      <c r="H1053" s="38" t="s">
         <v>9</v>
       </c>
-      <c r="I1053" s="33" t="s">
+      <c r="I1053" s="38" t="s">
         <v>10</v>
       </c>
-      <c r="J1053" s="33" t="s">
+      <c r="J1053" s="38" t="s">
         <v>11</v>
       </c>
-      <c r="K1053" s="32" t="s">
+      <c r="K1053" s="37" t="s">
         <v>12</v>
       </c>
-      <c r="L1053" s="32" t="s">
+      <c r="L1053" s="37" t="s">
         <v>13</v>
       </c>
-      <c r="M1053" s="32" t="s">
+      <c r="M1053" s="37" t="s">
         <v>14</v>
       </c>
-      <c r="N1053" s="33" t="s">
+      <c r="N1053" s="38" t="s">
         <v>15</v>
       </c>
-      <c r="O1053" s="33" t="s">
+      <c r="O1053" s="38" t="s">
         <v>16</v>
       </c>
-      <c r="P1053" s="33" t="s">
+      <c r="P1053" s="38" t="s">
         <v>17</v>
       </c>
     </row>
@@ -54097,7 +54130,7 @@
         <v>34</v>
       </c>
       <c r="B1067" s="1" t="s">
-        <v>35</v>
+        <v>88</v>
       </c>
       <c r="C1067" s="4">
         <v>0</v>
@@ -54145,7 +54178,7 @@
     <row r="1068" spans="1:16">
       <c r="A1068" s="16"/>
       <c r="B1068" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C1068" s="4">
         <v>0</v>
@@ -54192,7 +54225,7 @@
     </row>
     <row r="1069" spans="1:16">
       <c r="A1069" s="17" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B1069" s="3" t="s">
         <v>11</v>
@@ -54243,7 +54276,7 @@
     <row r="1070" spans="1:16">
       <c r="A1070" s="17"/>
       <c r="B1070" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C1070" s="13">
         <v>1</v>
